--- a/asc_network.xlsx
+++ b/asc_network.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="10980" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="11580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="asc_network" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="488">
   <si>
     <t>Alias</t>
   </si>
@@ -773,6 +773,12 @@
     <t>Alluring</t>
   </si>
   <si>
+    <t>Select-Fire PDW</t>
+  </si>
+  <si>
+    <t>Backdoor Salute</t>
+  </si>
+  <si>
     <t>Madi C</t>
   </si>
   <si>
@@ -800,6 +806,12 @@
     <t>London F</t>
   </si>
   <si>
+    <t>Samurai Sword</t>
+  </si>
+  <si>
+    <t>Honorable Dismissal</t>
+  </si>
+  <si>
     <t>London</t>
   </si>
   <si>
@@ -821,6 +833,12 @@
     <t>Ray R</t>
   </si>
   <si>
+    <t>Ceramic Stiletto</t>
+  </si>
+  <si>
+    <t>Last Call</t>
+  </si>
+  <si>
     <t>Ava W</t>
   </si>
   <si>
@@ -839,6 +857,12 @@
     <t>Danny M</t>
   </si>
   <si>
+    <t>Suppressed Pistol</t>
+  </si>
+  <si>
+    <t>Off the Feed</t>
+  </si>
+  <si>
     <t>Sadie P</t>
   </si>
   <si>
@@ -854,6 +878,12 @@
     <t>Alluring+</t>
   </si>
   <si>
+    <t>CF Marksman Carbine</t>
+  </si>
+  <si>
+    <t>Skyhook Counter</t>
+  </si>
+  <si>
     <t>Asteria J</t>
   </si>
   <si>
@@ -866,6 +896,12 @@
     <t>GI J</t>
   </si>
   <si>
+    <t>MG Sniper Rifle</t>
+  </si>
+  <si>
+    <t>Long Verdict</t>
+  </si>
+  <si>
     <t>GI</t>
   </si>
   <si>
@@ -878,6 +914,12 @@
     <t>Parker S</t>
   </si>
   <si>
+    <t>Twin CF Tonfa</t>
+  </si>
+  <si>
+    <t>Crossbar</t>
+  </si>
+  <si>
     <t>Natalie B</t>
   </si>
   <si>
@@ -888,6 +930,12 @@
   </si>
   <si>
     <t>Thor J</t>
+  </si>
+  <si>
+    <t>Heavy Demolition Hammer</t>
+  </si>
+  <si>
+    <t>Breachmaker</t>
   </si>
   <si>
     <t>April O</t>
@@ -2440,8 +2488,8 @@
   <sheetPr/>
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="12.8" customHeight="1"/>
@@ -2456,7 +2504,7 @@
     <col min="8" max="8" width="12.0095238095238" customWidth="1"/>
     <col min="9" max="9" width="10.6095238095238" customWidth="1"/>
     <col min="10" max="10" width="9.92380952380952" customWidth="1"/>
-    <col min="11" max="11" width="21.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="25.1428571428571" customWidth="1"/>
     <col min="12" max="12" width="21.4285714285714" customWidth="1"/>
     <col min="13" max="13" width="8.52380952380952" customWidth="1"/>
     <col min="14" max="14" width="11.447619047619" customWidth="1"/>
@@ -4634,29 +4682,35 @@
       <c r="J26" t="s">
         <v>74</v>
       </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="U26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="V26" t="s">
         <v>59</v>
@@ -4677,15 +4731,15 @@
         <v>48</v>
       </c>
       <c r="AB26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AC26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:29">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s">
         <v>242</v>
@@ -4714,6 +4768,12 @@
       <c r="J27" t="s">
         <v>64</v>
       </c>
+      <c r="K27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s">
+        <v>260</v>
+      </c>
       <c r="M27">
         <v>2</v>
       </c>
@@ -4721,25 +4781,25 @@
         <v>54</v>
       </c>
       <c r="O27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P27">
         <v>2</v>
       </c>
       <c r="Q27" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R27" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="T27" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="U27" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="V27" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="W27">
         <v>72</v>
@@ -4757,7 +4817,7 @@
         <v>143</v>
       </c>
       <c r="AB27" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AC27" t="s">
         <v>213</v>
@@ -4765,7 +4825,7 @@
     </row>
     <row r="28" customHeight="1" spans="1:29">
       <c r="A28" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s">
         <v>242</v>
@@ -4794,29 +4854,35 @@
       <c r="J28" t="s">
         <v>74</v>
       </c>
+      <c r="K28" t="s">
+        <v>268</v>
+      </c>
+      <c r="L28" t="s">
+        <v>269</v>
+      </c>
       <c r="M28">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="O28" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P28">
         <v>3</v>
       </c>
       <c r="Q28" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="R28" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="T28" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="U28" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="V28" t="s">
         <v>59</v>
@@ -4837,7 +4903,7 @@
         <v>143</v>
       </c>
       <c r="AB28" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AC28" t="s">
         <v>48</v>
@@ -4845,7 +4911,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:29">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s">
         <v>242</v>
@@ -4874,14 +4940,20 @@
       <c r="J29" t="s">
         <v>85</v>
       </c>
+      <c r="K29" t="s">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s">
+        <v>277</v>
+      </c>
       <c r="M29">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P29">
         <v>4</v>
@@ -4890,10 +4962,10 @@
         <v>185</v>
       </c>
       <c r="R29" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="T29" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="U29" t="s">
         <v>245</v>
@@ -4917,15 +4989,15 @@
         <v>213</v>
       </c>
       <c r="AB29" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AC29" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:29">
       <c r="A30" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s">
         <v>242</v>
@@ -4946,7 +5018,7 @@
         <v>126</v>
       </c>
       <c r="H30" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="I30" t="s">
         <v>84</v>
@@ -4954,14 +5026,20 @@
       <c r="J30" t="s">
         <v>38</v>
       </c>
+      <c r="K30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>284</v>
+      </c>
       <c r="M30">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="O30" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P30">
         <v>5</v>
@@ -4970,10 +5048,10 @@
         <v>148</v>
       </c>
       <c r="R30" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="T30" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="U30" t="s">
         <v>245</v>
@@ -4997,15 +5075,15 @@
         <v>213</v>
       </c>
       <c r="AB30" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AC30" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:29">
       <c r="A31" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s">
         <v>242</v>
@@ -5034,6 +5112,12 @@
       <c r="J31" t="s">
         <v>38</v>
       </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
+      <c r="L31" t="s">
+        <v>290</v>
+      </c>
       <c r="M31">
         <v>6</v>
       </c>
@@ -5041,19 +5125,19 @@
         <v>171</v>
       </c>
       <c r="O31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P31">
         <v>6</v>
       </c>
       <c r="Q31" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="R31" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="T31" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="U31" t="s">
         <v>245</v>
@@ -5077,15 +5161,15 @@
         <v>213</v>
       </c>
       <c r="AB31" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AC31" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:29">
       <c r="A32" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s">
         <v>242</v>
@@ -5114,14 +5198,20 @@
       <c r="J32" t="s">
         <v>64</v>
       </c>
+      <c r="K32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L32" t="s">
+        <v>296</v>
+      </c>
       <c r="M32">
         <v>7</v>
       </c>
       <c r="N32" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="O32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P32">
         <v>7</v>
@@ -5130,10 +5220,10 @@
         <v>209</v>
       </c>
       <c r="R32" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="T32" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="U32" t="s">
         <v>245</v>
@@ -5157,15 +5247,15 @@
         <v>213</v>
       </c>
       <c r="AB32" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AC32" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:29">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s">
         <v>242</v>
@@ -5194,26 +5284,32 @@
       <c r="J33" t="s">
         <v>85</v>
       </c>
+      <c r="K33" t="s">
+        <v>301</v>
+      </c>
+      <c r="L33" t="s">
+        <v>302</v>
+      </c>
       <c r="M33">
         <v>8</v>
       </c>
       <c r="N33" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="O33" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P33">
         <v>8</v>
       </c>
       <c r="Q33" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="R33" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="T33" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="U33" t="s">
         <v>245</v>
@@ -5237,36 +5333,36 @@
         <v>213</v>
       </c>
       <c r="AB33" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AC33" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:29">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C34" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="D34" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E34" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F34" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G34" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H34" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="I34" t="s">
         <v>37</v>
@@ -5275,34 +5371,34 @@
         <v>85</v>
       </c>
       <c r="K34" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="O34" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="P34">
         <v>1</v>
       </c>
       <c r="Q34" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="R34" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="T34" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="U34" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="V34" t="s">
         <v>59</v>
@@ -5331,28 +5427,28 @@
     </row>
     <row r="35" customHeight="1" spans="1:29">
       <c r="A35" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C35" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="D35" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E35" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F35" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G35" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H35" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="I35" t="s">
         <v>51</v>
@@ -5361,19 +5457,19 @@
         <v>74</v>
       </c>
       <c r="K35" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="M35">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="O35" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="P35">
         <v>2</v>
@@ -5382,13 +5478,13 @@
         <v>208</v>
       </c>
       <c r="R35" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="T35" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="U35" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="V35" t="s">
         <v>59</v>
@@ -5409,7 +5505,7 @@
         <v>48</v>
       </c>
       <c r="AB35" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AC35" t="s">
         <v>143</v>
@@ -5417,28 +5513,28 @@
     </row>
     <row r="36" customHeight="1" spans="1:29">
       <c r="A36" t="s">
+        <v>330</v>
+      </c>
+      <c r="B36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C36" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" t="s">
+        <v>310</v>
+      </c>
+      <c r="E36" t="s">
+        <v>311</v>
+      </c>
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>313</v>
+      </c>
+      <c r="H36" t="s">
         <v>314</v>
-      </c>
-      <c r="B36" t="s">
-        <v>292</v>
-      </c>
-      <c r="C36" t="s">
-        <v>293</v>
-      </c>
-      <c r="D36" t="s">
-        <v>294</v>
-      </c>
-      <c r="E36" t="s">
-        <v>295</v>
-      </c>
-      <c r="F36" t="s">
-        <v>296</v>
-      </c>
-      <c r="G36" t="s">
-        <v>297</v>
-      </c>
-      <c r="H36" t="s">
-        <v>298</v>
       </c>
       <c r="I36" t="s">
         <v>63</v>
@@ -5447,34 +5543,34 @@
         <v>38</v>
       </c>
       <c r="K36" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="L36" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="M36">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="O36" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="P36">
         <v>3</v>
       </c>
       <c r="Q36" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="R36" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="T36" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="U36" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="V36" t="s">
         <v>59</v>
@@ -5495,7 +5591,7 @@
         <v>143</v>
       </c>
       <c r="AB36" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="AC36" t="s">
         <v>48</v>
@@ -5503,28 +5599,28 @@
     </row>
     <row r="37" customHeight="1" spans="1:29">
       <c r="A37" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C37" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="D37" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E37" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F37" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G37" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H37" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="I37" t="s">
         <v>73</v>
@@ -5533,34 +5629,34 @@
         <v>38</v>
       </c>
       <c r="K37" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="M37">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="O37" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="P37">
         <v>4</v>
       </c>
       <c r="Q37" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="R37" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="T37" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="U37" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="V37" t="s">
         <v>59</v>
@@ -5581,7 +5677,7 @@
         <v>143</v>
       </c>
       <c r="AB37" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AC37" t="s">
         <v>143</v>
@@ -5589,28 +5685,28 @@
     </row>
     <row r="38" customHeight="1" spans="1:29">
       <c r="A38" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C38" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="D38" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E38" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F38" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G38" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H38" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="I38" t="s">
         <v>84</v>
@@ -5619,34 +5715,34 @@
         <v>64</v>
       </c>
       <c r="K38" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="M38">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="O38" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="P38">
         <v>5</v>
       </c>
       <c r="Q38" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="R38" t="s">
         <v>149</v>
       </c>
       <c r="T38" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="U38" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="V38" t="s">
         <v>59</v>
@@ -5667,7 +5763,7 @@
         <v>143</v>
       </c>
       <c r="AB38" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AC38" t="s">
         <v>143</v>
@@ -5675,28 +5771,28 @@
     </row>
     <row r="39" customHeight="1" spans="1:29">
       <c r="A39" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="D39" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E39" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F39" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G39" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H39" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="I39" t="s">
         <v>103</v>
@@ -5705,34 +5801,34 @@
         <v>64</v>
       </c>
       <c r="K39" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="M39">
         <v>6</v>
       </c>
       <c r="N39" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="O39" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="P39">
         <v>6</v>
       </c>
       <c r="Q39" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="R39" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="T39" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="U39" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="V39" t="s">
         <v>59</v>
@@ -5753,7 +5849,7 @@
         <v>143</v>
       </c>
       <c r="AB39" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AC39" t="s">
         <v>143</v>
@@ -5761,28 +5857,28 @@
     </row>
     <row r="40" customHeight="1" spans="1:29">
       <c r="A40" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C40" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="D40" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E40" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F40" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H40" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="I40" t="s">
         <v>176</v>
@@ -5791,10 +5887,10 @@
         <v>85</v>
       </c>
       <c r="K40" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="M40">
         <v>7</v>
@@ -5803,22 +5899,22 @@
         <v>97</v>
       </c>
       <c r="O40" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="P40">
         <v>7</v>
       </c>
       <c r="Q40" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="R40" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="T40" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="U40" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="V40" t="s">
         <v>59</v>
@@ -5839,7 +5935,7 @@
         <v>213</v>
       </c>
       <c r="AB40" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AC40" t="s">
         <v>143</v>
@@ -5847,28 +5943,28 @@
     </row>
     <row r="41" customHeight="1" spans="1:29">
       <c r="A41" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="B41" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="C41" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="D41" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E41" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F41" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G41" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H41" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="I41" t="s">
         <v>112</v>
@@ -5877,34 +5973,34 @@
         <v>74</v>
       </c>
       <c r="K41" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="M41">
         <v>8</v>
       </c>
       <c r="N41" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="O41" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="P41">
         <v>8</v>
       </c>
       <c r="Q41" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="R41" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="T41" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="U41" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="V41" t="s">
         <v>59</v>
@@ -5925,7 +6021,7 @@
         <v>143</v>
       </c>
       <c r="AB41" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AC41" t="s">
         <v>143</v>
@@ -5933,28 +6029,28 @@
     </row>
     <row r="42" customHeight="1" spans="1:29">
       <c r="A42" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C42" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D42" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E42" t="s">
         <v>92</v>
       </c>
       <c r="F42" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="G42" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="H42" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="I42" t="s">
         <v>37</v>
@@ -5963,10 +6059,10 @@
         <v>38</v>
       </c>
       <c r="K42" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -5975,25 +6071,25 @@
         <v>171</v>
       </c>
       <c r="O42" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="P42">
         <v>1</v>
       </c>
       <c r="Q42" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="R42" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="S42">
         <v>32</v>
       </c>
       <c r="T42" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="U42" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="V42" t="s">
         <v>59</v>
@@ -6014,36 +6110,36 @@
         <v>48</v>
       </c>
       <c r="AB42" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AC42" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:29">
       <c r="A43" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C43" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D43" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E43" t="s">
         <v>92</v>
       </c>
       <c r="F43" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="G43" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="H43" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="I43" t="s">
         <v>51</v>
@@ -6052,37 +6148,37 @@
         <v>38</v>
       </c>
       <c r="K43" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="L43" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="M43">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="O43" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="P43">
         <v>2</v>
       </c>
       <c r="Q43" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="R43" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="S43">
         <v>23</v>
       </c>
       <c r="T43" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="U43" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="V43" t="s">
         <v>59</v>
@@ -6103,7 +6199,7 @@
         <v>143</v>
       </c>
       <c r="AB43" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AC43" t="s">
         <v>61</v>
@@ -6111,28 +6207,28 @@
     </row>
     <row r="44" customHeight="1" spans="1:29">
       <c r="A44" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C44" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D44" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
       </c>
       <c r="F44" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="H44" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="I44" t="s">
         <v>63</v>
@@ -6141,34 +6237,34 @@
         <v>85</v>
       </c>
       <c r="K44" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="L44" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="M44">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="O44" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="P44">
         <v>3</v>
       </c>
       <c r="Q44" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="R44" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="S44">
         <v>25</v>
       </c>
       <c r="T44" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="U44" t="s">
         <v>212</v>
@@ -6189,7 +6285,7 @@
         <v>9</v>
       </c>
       <c r="AA44" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="AB44" t="s">
         <v>212</v>
@@ -6200,28 +6296,28 @@
     </row>
     <row r="45" customHeight="1" spans="1:29">
       <c r="A45" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B45" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C45" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D45" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E45" t="s">
         <v>92</v>
       </c>
       <c r="F45" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="G45" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="H45" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="I45" t="s">
         <v>73</v>
@@ -6230,25 +6326,25 @@
         <v>74</v>
       </c>
       <c r="K45" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="L45" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="M45">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="O45" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="P45">
         <v>4</v>
       </c>
       <c r="Q45" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="R45" t="s">
         <v>166</v>
@@ -6289,28 +6385,28 @@
     </row>
     <row r="46" customHeight="1" spans="1:29">
       <c r="A46" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="B46" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C46" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D46" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E46" t="s">
         <v>92</v>
       </c>
       <c r="F46" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="G46" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="H46" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="I46" t="s">
         <v>84</v>
@@ -6319,28 +6415,28 @@
         <v>74</v>
       </c>
       <c r="K46" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="L46" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="M46">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="O46" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="P46">
         <v>5</v>
       </c>
       <c r="Q46" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="R46" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="S46">
         <v>27</v>
@@ -6378,28 +6474,28 @@
     </row>
     <row r="47" customHeight="1" spans="1:29">
       <c r="A47" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B47" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C47" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D47" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E47" t="s">
         <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="G47" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="H47" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="I47" t="s">
         <v>94</v>
@@ -6408,10 +6504,10 @@
         <v>64</v>
       </c>
       <c r="K47" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="L47" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="M47">
         <v>6</v>
@@ -6420,16 +6516,16 @@
         <v>238</v>
       </c>
       <c r="O47" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="P47">
         <v>6</v>
       </c>
       <c r="Q47" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="R47" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="S47">
         <v>26</v>
@@ -6467,28 +6563,28 @@
     </row>
     <row r="48" customHeight="1" spans="1:29">
       <c r="A48" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="B48" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C48" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D48" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E48" t="s">
         <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="G48" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="H48" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="I48" t="s">
         <v>176</v>
@@ -6497,28 +6593,28 @@
         <v>85</v>
       </c>
       <c r="K48" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="L48" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="M48">
         <v>7</v>
       </c>
       <c r="N48" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="O48" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="P48">
         <v>7</v>
       </c>
       <c r="Q48" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="R48" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="S48">
         <v>28</v>
@@ -6556,28 +6652,28 @@
     </row>
     <row r="49" customHeight="1" spans="1:29">
       <c r="A49" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C49" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D49" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E49" t="s">
         <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="G49" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="H49" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="I49" t="s">
         <v>103</v>
@@ -6586,28 +6682,28 @@
         <v>64</v>
       </c>
       <c r="K49" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="L49" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="M49">
         <v>8</v>
       </c>
       <c r="N49" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="O49" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="P49">
         <v>8</v>
       </c>
       <c r="Q49" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="R49" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="S49">
         <v>24</v>
@@ -6645,28 +6741,28 @@
     </row>
     <row r="50" customHeight="1" spans="1:29">
       <c r="A50" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="B50" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C50" t="s">
         <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E50" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="F50" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="G50" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="H50" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="I50" t="s">
         <v>103</v>
@@ -6675,19 +6771,19 @@
         <v>74</v>
       </c>
       <c r="K50" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="L50" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="O50" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="P50">
         <v>1</v>
@@ -6696,16 +6792,16 @@
         <v>98</v>
       </c>
       <c r="R50" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S50">
         <v>35</v>
       </c>
       <c r="T50" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="U50" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="V50" t="s">
         <v>59</v>
@@ -6734,28 +6830,28 @@
     </row>
     <row r="51" customHeight="1" spans="1:29">
       <c r="A51" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="B51" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C51" t="s">
         <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E51" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="F51" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="G51" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="H51" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="I51" t="s">
         <v>51</v>
@@ -6764,10 +6860,10 @@
         <v>64</v>
       </c>
       <c r="K51" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="L51" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -6776,25 +6872,25 @@
         <v>171</v>
       </c>
       <c r="O51" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="P51">
         <v>2</v>
       </c>
       <c r="Q51" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="R51" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="S51">
         <v>32</v>
       </c>
       <c r="T51" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="U51" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="V51" t="s">
         <v>47</v>
@@ -6812,10 +6908,10 @@
         <v>8</v>
       </c>
       <c r="AA51" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="AB51" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AC51" t="s">
         <v>61</v>
@@ -6823,28 +6919,28 @@
     </row>
     <row r="52" customHeight="1" spans="1:29">
       <c r="A52" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B52" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C52" t="s">
         <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E52" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="F52" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="G52" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="H52" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="I52" t="s">
         <v>63</v>
@@ -6853,10 +6949,10 @@
         <v>85</v>
       </c>
       <c r="K52" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="L52" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="M52">
         <v>3</v>
@@ -6865,25 +6961,25 @@
         <v>238</v>
       </c>
       <c r="O52" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="P52">
         <v>3</v>
       </c>
       <c r="Q52" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="R52" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="S52">
         <v>38</v>
       </c>
       <c r="T52" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="U52" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="V52" t="s">
         <v>59</v>
@@ -6904,7 +7000,7 @@
         <v>213</v>
       </c>
       <c r="AB52" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AC52" t="s">
         <v>61</v>
@@ -6912,28 +7008,28 @@
     </row>
     <row r="53" customHeight="1" spans="1:29">
       <c r="A53" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C53" t="s">
         <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E53" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="F53" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="G53" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="H53" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="I53" t="s">
         <v>73</v>
@@ -6942,37 +7038,37 @@
         <v>38</v>
       </c>
       <c r="K53" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="L53" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="M53">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="O53" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="P53">
         <v>4</v>
       </c>
       <c r="Q53" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="R53" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="S53">
         <v>40</v>
       </c>
       <c r="T53" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="U53" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="V53" t="s">
         <v>59</v>
@@ -6993,7 +7089,7 @@
         <v>213</v>
       </c>
       <c r="AB53" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AC53" t="s">
         <v>61</v>
@@ -7001,28 +7097,28 @@
     </row>
     <row r="54" customHeight="1" spans="1:29">
       <c r="A54" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B54" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C54" t="s">
         <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E54" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="F54" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="G54" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="H54" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="I54" t="s">
         <v>84</v>
@@ -7031,37 +7127,37 @@
         <v>74</v>
       </c>
       <c r="K54" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="L54" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="M54">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="O54" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="P54">
         <v>5</v>
       </c>
       <c r="Q54" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="R54" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="S54">
         <v>24</v>
       </c>
       <c r="T54" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="U54" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="V54" t="s">
         <v>59</v>
@@ -7079,10 +7175,10 @@
         <v>8</v>
       </c>
       <c r="AA54" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="AB54" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AC54" t="s">
         <v>61</v>
@@ -7090,28 +7186,28 @@
     </row>
     <row r="55" customHeight="1" spans="1:29">
       <c r="A55" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="B55" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C55" t="s">
         <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E55" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="F55" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="G55" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="H55" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="I55" t="s">
         <v>94</v>
@@ -7120,37 +7216,37 @@
         <v>85</v>
       </c>
       <c r="K55" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="L55" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="M55">
         <v>6</v>
       </c>
       <c r="N55" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="O55" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="P55">
         <v>6</v>
       </c>
       <c r="Q55" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="R55" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="S55">
         <v>29</v>
       </c>
       <c r="T55" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="U55" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="V55" t="s">
         <v>59</v>
@@ -7168,10 +7264,10 @@
         <v>7</v>
       </c>
       <c r="AA55" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="AB55" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AC55" t="s">
         <v>61</v>
@@ -7179,28 +7275,28 @@
     </row>
     <row r="56" customHeight="1" spans="1:29">
       <c r="A56" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="B56" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C56" t="s">
         <v>99</v>
       </c>
       <c r="D56" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E56" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="F56" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="G56" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="H56" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="I56" t="s">
         <v>176</v>
@@ -7209,37 +7305,37 @@
         <v>38</v>
       </c>
       <c r="K56" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="L56" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="M56">
         <v>7</v>
       </c>
       <c r="N56" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="O56" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="P56">
         <v>7</v>
       </c>
       <c r="Q56" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="R56" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="S56">
         <v>27</v>
       </c>
       <c r="T56" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="U56" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="V56" t="s">
         <v>59</v>
@@ -7257,10 +7353,10 @@
         <v>7.5</v>
       </c>
       <c r="AA56" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="AB56" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AC56" t="s">
         <v>61</v>
@@ -7268,28 +7364,28 @@
     </row>
     <row r="57" customHeight="1" spans="1:29">
       <c r="A57" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="B57" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C57" t="s">
         <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="E57" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="F57" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="G57" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="H57" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="I57" t="s">
         <v>112</v>
@@ -7298,37 +7394,37 @@
         <v>64</v>
       </c>
       <c r="K57" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="L57" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="M57">
         <v>8</v>
       </c>
       <c r="N57" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="O57" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="P57">
         <v>8</v>
       </c>
       <c r="Q57" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="R57" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="S57">
         <v>35</v>
       </c>
       <c r="T57" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="U57" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="V57" t="s">
         <v>47</v>
@@ -7346,10 +7442,10 @@
         <v>8</v>
       </c>
       <c r="AA57" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="AB57" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AC57" t="s">
         <v>61</v>

--- a/asc_network.xlsx
+++ b/asc_network.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="504">
   <si>
     <t>Alias</t>
   </si>
@@ -614,6 +614,12 @@
     <t>Curated</t>
   </si>
   <si>
+    <t>Shelf-Stocker’s Mallet</t>
+  </si>
+  <si>
+    <t>Inventory Rush</t>
+  </si>
+  <si>
     <t>grand</t>
   </si>
   <si>
@@ -632,6 +638,12 @@
     <t>Colton C</t>
   </si>
   <si>
+    <t>Fire Poker</t>
+  </si>
+  <si>
+    <t>Ember Hook</t>
+  </si>
+  <si>
     <t>Danae M</t>
   </si>
   <si>
@@ -650,6 +662,12 @@
     <t>Tommy P</t>
   </si>
   <si>
+    <t>Pool Cue</t>
+  </si>
+  <si>
+    <t>Table-Run Drop</t>
+  </si>
+  <si>
     <t>Addison V</t>
   </si>
   <si>
@@ -674,6 +692,12 @@
     <t>Ridge C</t>
   </si>
   <si>
+    <t>Expandable Baton</t>
+  </si>
+  <si>
+    <t>Country Check</t>
+  </si>
+  <si>
     <t>Jenifer J</t>
   </si>
   <si>
@@ -695,6 +719,12 @@
     <t>Curated+</t>
   </si>
   <si>
+    <t>Wrench</t>
+  </si>
+  <si>
+    <t>Bolt Breaker</t>
+  </si>
+  <si>
     <t>Eva G</t>
   </si>
   <si>
@@ -713,6 +743,12 @@
     <t>Juan L</t>
   </si>
   <si>
+    <t>Pitchfork</t>
+  </si>
+  <si>
+    <t>Sky-Tine Snare</t>
+  </si>
+  <si>
     <t>Scarlett F</t>
   </si>
   <si>
@@ -728,6 +764,12 @@
     <t>Adam L</t>
   </si>
   <si>
+    <t>Stock Cane</t>
+  </si>
+  <si>
+    <t>Corral Vault</t>
+  </si>
+  <si>
     <t>Serena S</t>
   </si>
   <si>
@@ -741,6 +783,12 @@
   </si>
   <si>
     <t>Jmac</t>
+  </si>
+  <si>
+    <t>Acoustic Guitar</t>
+  </si>
+  <si>
+    <t>Strum Swat</t>
   </si>
   <si>
     <t>Kyler Q</t>
@@ -1503,8 +1551,14 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -1969,16 +2023,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1987,120 +2038,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2488,8 +2543,8 @@
   <sheetPr/>
   <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5333333333333" defaultRowHeight="12.8" customHeight="1"/>
@@ -2502,8 +2557,8 @@
     <col min="6" max="6" width="11.1714285714286" customWidth="1"/>
     <col min="7" max="7" width="5.75238095238095" customWidth="1"/>
     <col min="8" max="8" width="12.0095238095238" customWidth="1"/>
-    <col min="9" max="9" width="10.6095238095238" customWidth="1"/>
-    <col min="10" max="10" width="9.92380952380952" customWidth="1"/>
+    <col min="9" max="9" width="11.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="11.1428571428571" customWidth="1"/>
     <col min="11" max="11" width="25.1428571428571" customWidth="1"/>
     <col min="12" max="12" width="21.4285714285714" customWidth="1"/>
     <col min="13" max="13" width="8.52380952380952" customWidth="1"/>
@@ -4045,6 +4100,12 @@
       <c r="J18" t="s">
         <v>64</v>
       </c>
+      <c r="K18" t="s">
+        <v>195</v>
+      </c>
+      <c r="L18" t="s">
+        <v>196</v>
+      </c>
       <c r="M18">
         <v>1</v>
       </c>
@@ -4052,22 +4113,22 @@
         <v>179</v>
       </c>
       <c r="O18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P18">
         <v>1</v>
       </c>
       <c r="Q18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="R18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="T18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="U18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="V18" t="s">
         <v>47</v>
@@ -4096,7 +4157,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:29">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
         <v>188</v>
@@ -4125,29 +4186,35 @@
       <c r="J19" t="s">
         <v>85</v>
       </c>
+      <c r="K19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" t="s">
+        <v>204</v>
+      </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P19">
         <v>2</v>
       </c>
       <c r="Q19" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="R19" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="T19" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="U19" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="V19" t="s">
         <v>59</v>
@@ -4176,7 +4243,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:29">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
         <v>188</v>
@@ -4205,29 +4272,35 @@
       <c r="J20" t="s">
         <v>74</v>
       </c>
+      <c r="K20" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="M20">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="O20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P20">
         <v>3</v>
       </c>
       <c r="Q20" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="R20" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="T20" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="U20" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="V20" t="s">
         <v>59</v>
@@ -4248,15 +4321,15 @@
         <v>152</v>
       </c>
       <c r="AB20" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AC20" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:29">
       <c r="A21" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s">
         <v>188</v>
@@ -4285,29 +4358,35 @@
       <c r="J21" t="s">
         <v>64</v>
       </c>
+      <c r="K21" t="s">
+        <v>221</v>
+      </c>
+      <c r="L21" t="s">
+        <v>222</v>
+      </c>
       <c r="M21">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="O21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P21">
         <v>4</v>
       </c>
       <c r="Q21" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="R21" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="T21" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="U21" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="V21" t="s">
         <v>59</v>
@@ -4336,7 +4415,7 @@
     </row>
     <row r="22" customHeight="1" spans="1:29">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s">
         <v>188</v>
@@ -4357,7 +4436,7 @@
         <v>193</v>
       </c>
       <c r="H22" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="I22" t="s">
         <v>84</v>
@@ -4365,29 +4444,35 @@
       <c r="J22" t="s">
         <v>85</v>
       </c>
+      <c r="K22" t="s">
+        <v>230</v>
+      </c>
+      <c r="L22" t="s">
+        <v>231</v>
+      </c>
       <c r="M22">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P22">
         <v>5</v>
       </c>
       <c r="Q22" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="R22" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="T22" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="U22" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="V22" t="s">
         <v>59</v>
@@ -4416,7 +4501,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:29">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s">
         <v>188</v>
@@ -4445,29 +4530,35 @@
       <c r="J23" t="s">
         <v>38</v>
       </c>
+      <c r="K23" t="s">
+        <v>238</v>
+      </c>
+      <c r="L23" t="s">
+        <v>239</v>
+      </c>
       <c r="M23">
         <v>6</v>
       </c>
       <c r="N23" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="O23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P23">
         <v>6</v>
       </c>
       <c r="Q23" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="R23" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="T23" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="U23" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="V23" t="s">
         <v>47</v>
@@ -4496,7 +4587,7 @@
     </row>
     <row r="24" customHeight="1" spans="1:29">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s">
         <v>188</v>
@@ -4525,29 +4616,35 @@
       <c r="J24" t="s">
         <v>74</v>
       </c>
+      <c r="K24" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" t="s">
+        <v>246</v>
+      </c>
       <c r="M24">
         <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P24">
         <v>7</v>
       </c>
       <c r="Q24" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="R24" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="T24" t="s">
+        <v>250</v>
+      </c>
+      <c r="U24" t="s">
         <v>236</v>
-      </c>
-      <c r="U24" t="s">
-        <v>226</v>
       </c>
       <c r="V24" t="s">
         <v>59</v>
@@ -4576,7 +4673,7 @@
     </row>
     <row r="25" customHeight="1" spans="1:29">
       <c r="A25" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
         <v>188</v>
@@ -4605,26 +4702,32 @@
       <c r="J25" t="s">
         <v>38</v>
       </c>
+      <c r="K25" t="s">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s">
+        <v>253</v>
+      </c>
       <c r="M25">
         <v>8</v>
       </c>
       <c r="N25" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="O25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P25">
         <v>8</v>
       </c>
       <c r="Q25" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="T25" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="U25" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="V25" t="s">
         <v>59</v>
@@ -4653,28 +4756,28 @@
     </row>
     <row r="26" customHeight="1" spans="1:29">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C26" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D26" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E26" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
         <v>126</v>
       </c>
       <c r="H26" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I26" t="s">
         <v>37</v>
@@ -4683,34 +4786,34 @@
         <v>74</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="O26" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="Q26" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="R26" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="T26" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="U26" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="V26" t="s">
         <v>59</v>
@@ -4731,36 +4834,36 @@
         <v>48</v>
       </c>
       <c r="AB26" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="AC26" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:29">
       <c r="A27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" t="s">
         <v>258</v>
       </c>
-      <c r="B27" t="s">
-        <v>242</v>
-      </c>
       <c r="C27" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E27" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F27" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G27" t="s">
         <v>126</v>
       </c>
       <c r="H27" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I27" t="s">
         <v>51</v>
@@ -4769,10 +4872,10 @@
         <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="M27">
         <v>2</v>
@@ -4781,25 +4884,25 @@
         <v>54</v>
       </c>
       <c r="O27" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="P27">
         <v>2</v>
       </c>
       <c r="Q27" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="R27" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="T27" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="U27" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="V27" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="W27">
         <v>72</v>
@@ -4817,36 +4920,36 @@
         <v>143</v>
       </c>
       <c r="AB27" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="AC27" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:29">
       <c r="A28" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D28" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E28" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
         <v>126</v>
       </c>
       <c r="H28" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I28" t="s">
         <v>63</v>
@@ -4855,34 +4958,34 @@
         <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="L28" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="M28">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="O28" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="P28">
         <v>3</v>
       </c>
       <c r="Q28" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="R28" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="T28" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="U28" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="V28" t="s">
         <v>59</v>
@@ -4903,7 +5006,7 @@
         <v>143</v>
       </c>
       <c r="AB28" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="AC28" t="s">
         <v>48</v>
@@ -4911,28 +5014,28 @@
     </row>
     <row r="29" customHeight="1" spans="1:29">
       <c r="A29" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E29" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
         <v>126</v>
       </c>
       <c r="H29" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I29" t="s">
         <v>103</v>
@@ -4941,19 +5044,19 @@
         <v>85</v>
       </c>
       <c r="K29" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="L29" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="M29">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="O29" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="P29">
         <v>4</v>
@@ -4962,13 +5065,13 @@
         <v>185</v>
       </c>
       <c r="R29" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="T29" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="U29" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="V29" t="s">
         <v>59</v>
@@ -4986,39 +5089,39 @@
         <v>8</v>
       </c>
       <c r="AA29" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AB29" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="AC29" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:29">
       <c r="A30" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E30" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G30" t="s">
         <v>126</v>
       </c>
       <c r="H30" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="I30" t="s">
         <v>84</v>
@@ -5027,19 +5130,19 @@
         <v>38</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="L30" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="M30">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="O30" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="P30">
         <v>5</v>
@@ -5048,13 +5151,13 @@
         <v>148</v>
       </c>
       <c r="R30" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="T30" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="U30" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="V30" t="s">
         <v>47</v>
@@ -5072,39 +5175,39 @@
         <v>8</v>
       </c>
       <c r="AA30" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AB30" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="AC30" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:29">
       <c r="A31" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D31" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E31" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G31" t="s">
         <v>126</v>
       </c>
       <c r="H31" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I31" t="s">
         <v>94</v>
@@ -5113,10 +5216,10 @@
         <v>38</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="M31">
         <v>6</v>
@@ -5125,22 +5228,22 @@
         <v>171</v>
       </c>
       <c r="O31" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="P31">
         <v>6</v>
       </c>
       <c r="Q31" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="R31" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="T31" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="U31" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="V31" t="s">
         <v>59</v>
@@ -5158,39 +5261,39 @@
         <v>9</v>
       </c>
       <c r="AA31" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AB31" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="AC31" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:29">
       <c r="A32" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C32" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E32" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F32" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
         <v>126</v>
       </c>
       <c r="H32" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I32" t="s">
         <v>176</v>
@@ -5199,34 +5302,34 @@
         <v>64</v>
       </c>
       <c r="K32" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="M32">
         <v>7</v>
       </c>
       <c r="N32" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="O32" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="P32">
         <v>7</v>
       </c>
       <c r="Q32" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="R32" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="T32" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="U32" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="V32" t="s">
         <v>59</v>
@@ -5244,39 +5347,39 @@
         <v>7.5</v>
       </c>
       <c r="AA32" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AB32" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="AC32" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:29">
       <c r="A33" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C33" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E33" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F33" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G33" t="s">
         <v>126</v>
       </c>
       <c r="H33" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="I33" t="s">
         <v>112</v>
@@ -5285,34 +5388,34 @@
         <v>85</v>
       </c>
       <c r="K33" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="M33">
         <v>8</v>
       </c>
       <c r="N33" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="O33" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="P33">
         <v>8</v>
       </c>
       <c r="Q33" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="R33" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="T33" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="U33" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="V33" t="s">
         <v>59</v>
@@ -5330,39 +5433,39 @@
         <v>8</v>
       </c>
       <c r="AA33" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AB33" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="AC33" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:29">
       <c r="A34" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C34" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="D34" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="E34" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="F34" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="G34" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="H34" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="I34" t="s">
         <v>37</v>
@@ -5371,34 +5474,34 @@
         <v>85</v>
       </c>
       <c r="K34" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="L34" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="O34" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="P34">
         <v>1</v>
       </c>
       <c r="Q34" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="R34" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="T34" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="U34" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="V34" t="s">
         <v>59</v>
@@ -5427,28 +5530,28 @@
     </row>
     <row r="35" customHeight="1" spans="1:29">
       <c r="A35" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C35" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="D35" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="E35" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="F35" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="G35" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="H35" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="I35" t="s">
         <v>51</v>
@@ -5457,34 +5560,34 @@
         <v>74</v>
       </c>
       <c r="K35" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="L35" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="M35">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="O35" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="P35">
         <v>2</v>
       </c>
       <c r="Q35" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="R35" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="T35" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="U35" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="V35" t="s">
         <v>59</v>
@@ -5505,7 +5608,7 @@
         <v>48</v>
       </c>
       <c r="AB35" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="AC35" t="s">
         <v>143</v>
@@ -5513,28 +5616,28 @@
     </row>
     <row r="36" customHeight="1" spans="1:29">
       <c r="A36" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" t="s">
+        <v>325</v>
+      </c>
+      <c r="D36" t="s">
+        <v>326</v>
+      </c>
+      <c r="E36" t="s">
+        <v>327</v>
+      </c>
+      <c r="F36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G36" t="s">
+        <v>329</v>
+      </c>
+      <c r="H36" t="s">
         <v>330</v>
-      </c>
-      <c r="B36" t="s">
-        <v>308</v>
-      </c>
-      <c r="C36" t="s">
-        <v>309</v>
-      </c>
-      <c r="D36" t="s">
-        <v>310</v>
-      </c>
-      <c r="E36" t="s">
-        <v>311</v>
-      </c>
-      <c r="F36" t="s">
-        <v>312</v>
-      </c>
-      <c r="G36" t="s">
-        <v>313</v>
-      </c>
-      <c r="H36" t="s">
-        <v>314</v>
       </c>
       <c r="I36" t="s">
         <v>63</v>
@@ -5543,34 +5646,34 @@
         <v>38</v>
       </c>
       <c r="K36" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="M36">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="P36">
         <v>3</v>
       </c>
       <c r="Q36" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="R36" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="T36" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="U36" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="V36" t="s">
         <v>59</v>
@@ -5591,7 +5694,7 @@
         <v>143</v>
       </c>
       <c r="AB36" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="AC36" t="s">
         <v>48</v>
@@ -5599,28 +5702,28 @@
     </row>
     <row r="37" customHeight="1" spans="1:29">
       <c r="A37" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="B37" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C37" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="D37" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="E37" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="G37" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="H37" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="I37" t="s">
         <v>73</v>
@@ -5629,34 +5732,34 @@
         <v>38</v>
       </c>
       <c r="K37" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="L37" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="M37">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="O37" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="P37">
         <v>4</v>
       </c>
       <c r="Q37" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="R37" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="T37" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="U37" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="V37" t="s">
         <v>59</v>
@@ -5677,7 +5780,7 @@
         <v>143</v>
       </c>
       <c r="AB37" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="AC37" t="s">
         <v>143</v>
@@ -5685,28 +5788,28 @@
     </row>
     <row r="38" customHeight="1" spans="1:29">
       <c r="A38" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B38" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C38" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="D38" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="E38" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="F38" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="G38" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="H38" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="I38" t="s">
         <v>84</v>
@@ -5715,34 +5818,34 @@
         <v>64</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="L38" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="M38">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="O38" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="P38">
         <v>5</v>
       </c>
       <c r="Q38" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="R38" t="s">
         <v>149</v>
       </c>
       <c r="T38" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="U38" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="V38" t="s">
         <v>59</v>
@@ -5763,7 +5866,7 @@
         <v>143</v>
       </c>
       <c r="AB38" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="AC38" t="s">
         <v>143</v>
@@ -5771,28 +5874,28 @@
     </row>
     <row r="39" customHeight="1" spans="1:29">
       <c r="A39" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B39" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C39" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="E39" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="G39" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="H39" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="I39" t="s">
         <v>103</v>
@@ -5801,34 +5904,34 @@
         <v>64</v>
       </c>
       <c r="K39" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="L39" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="M39">
         <v>6</v>
       </c>
       <c r="N39" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="P39">
         <v>6</v>
       </c>
       <c r="Q39" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="R39" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="T39" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="U39" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="V39" t="s">
         <v>59</v>
@@ -5849,7 +5952,7 @@
         <v>143</v>
       </c>
       <c r="AB39" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="AC39" t="s">
         <v>143</v>
@@ -5857,28 +5960,28 @@
     </row>
     <row r="40" customHeight="1" spans="1:29">
       <c r="A40" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C40" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="D40" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="E40" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="F40" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="G40" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="H40" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="I40" t="s">
         <v>176</v>
@@ -5887,10 +5990,10 @@
         <v>85</v>
       </c>
       <c r="K40" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="L40" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="M40">
         <v>7</v>
@@ -5899,22 +6002,22 @@
         <v>97</v>
       </c>
       <c r="O40" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="P40">
         <v>7</v>
       </c>
       <c r="Q40" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="R40" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="T40" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="U40" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="V40" t="s">
         <v>59</v>
@@ -5932,10 +6035,10 @@
         <v>9</v>
       </c>
       <c r="AA40" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AB40" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="AC40" t="s">
         <v>143</v>
@@ -5943,28 +6046,28 @@
     </row>
     <row r="41" customHeight="1" spans="1:29">
       <c r="A41" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="B41" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C41" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="D41" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="E41" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="F41" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="G41" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="H41" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="I41" t="s">
         <v>112</v>
@@ -5973,34 +6076,34 @@
         <v>74</v>
       </c>
       <c r="K41" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="L41" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="M41">
         <v>8</v>
       </c>
       <c r="N41" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="O41" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="P41">
         <v>8</v>
       </c>
       <c r="Q41" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="R41" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="T41" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="U41" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="V41" t="s">
         <v>59</v>
@@ -6021,7 +6124,7 @@
         <v>143</v>
       </c>
       <c r="AB41" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="AC41" t="s">
         <v>143</v>
@@ -6029,28 +6132,28 @@
     </row>
     <row r="42" customHeight="1" spans="1:29">
       <c r="A42" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="B42" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C42" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D42" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E42" t="s">
         <v>92</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="G42" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="H42" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="I42" t="s">
         <v>37</v>
@@ -6059,10 +6162,10 @@
         <v>38</v>
       </c>
       <c r="K42" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="L42" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -6071,25 +6174,25 @@
         <v>171</v>
       </c>
       <c r="O42" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="P42">
         <v>1</v>
       </c>
       <c r="Q42" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="R42" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="S42">
         <v>32</v>
       </c>
       <c r="T42" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="U42" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="V42" t="s">
         <v>59</v>
@@ -6110,36 +6213,36 @@
         <v>48</v>
       </c>
       <c r="AB42" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="AC42" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:29">
       <c r="A43" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="B43" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C43" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D43" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E43" t="s">
         <v>92</v>
       </c>
       <c r="F43" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="G43" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="H43" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="I43" t="s">
         <v>51</v>
@@ -6148,37 +6251,37 @@
         <v>38</v>
       </c>
       <c r="K43" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="L43" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="M43">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="O43" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="P43">
         <v>2</v>
       </c>
       <c r="Q43" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="R43" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="S43">
         <v>23</v>
       </c>
       <c r="T43" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="U43" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="V43" t="s">
         <v>59</v>
@@ -6199,7 +6302,7 @@
         <v>143</v>
       </c>
       <c r="AB43" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AC43" t="s">
         <v>61</v>
@@ -6207,28 +6310,28 @@
     </row>
     <row r="44" customHeight="1" spans="1:29">
       <c r="A44" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="B44" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C44" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D44" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
       </c>
       <c r="F44" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="G44" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="H44" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="I44" t="s">
         <v>63</v>
@@ -6237,37 +6340,37 @@
         <v>85</v>
       </c>
       <c r="K44" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="L44" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="M44">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="O44" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="P44">
         <v>3</v>
       </c>
       <c r="Q44" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="R44" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="S44">
         <v>25</v>
       </c>
       <c r="T44" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="U44" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="V44" t="s">
         <v>59</v>
@@ -6285,39 +6388,39 @@
         <v>9</v>
       </c>
       <c r="AA44" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="AB44" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AC44" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:29">
       <c r="A45" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="B45" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C45" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D45" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E45" t="s">
         <v>92</v>
       </c>
       <c r="F45" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="G45" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="H45" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="I45" t="s">
         <v>73</v>
@@ -6326,25 +6429,25 @@
         <v>74</v>
       </c>
       <c r="K45" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="L45" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="M45">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="O45" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="P45">
         <v>4</v>
       </c>
       <c r="Q45" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="R45" t="s">
         <v>166</v>
@@ -6385,28 +6488,28 @@
     </row>
     <row r="46" customHeight="1" spans="1:29">
       <c r="A46" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="B46" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C46" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D46" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E46" t="s">
         <v>92</v>
       </c>
       <c r="F46" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="G46" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="H46" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="I46" t="s">
         <v>84</v>
@@ -6415,28 +6518,28 @@
         <v>74</v>
       </c>
       <c r="K46" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="L46" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="M46">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="O46" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="P46">
         <v>5</v>
       </c>
       <c r="Q46" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="R46" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="S46">
         <v>27</v>
@@ -6474,28 +6577,28 @@
     </row>
     <row r="47" customHeight="1" spans="1:29">
       <c r="A47" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C47" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D47" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E47" t="s">
         <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="G47" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="H47" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="I47" t="s">
         <v>94</v>
@@ -6504,28 +6607,28 @@
         <v>64</v>
       </c>
       <c r="K47" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="L47" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="M47">
         <v>6</v>
       </c>
       <c r="N47" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="O47" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="P47">
         <v>6</v>
       </c>
       <c r="Q47" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="R47" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="S47">
         <v>26</v>
@@ -6563,28 +6666,28 @@
     </row>
     <row r="48" customHeight="1" spans="1:29">
       <c r="A48" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="B48" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C48" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D48" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E48" t="s">
         <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="G48" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="H48" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="I48" t="s">
         <v>176</v>
@@ -6593,28 +6696,28 @@
         <v>85</v>
       </c>
       <c r="K48" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="L48" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="M48">
         <v>7</v>
       </c>
       <c r="N48" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="O48" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="P48">
         <v>7</v>
       </c>
       <c r="Q48" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="R48" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="S48">
         <v>28</v>
@@ -6652,28 +6755,28 @@
     </row>
     <row r="49" customHeight="1" spans="1:29">
       <c r="A49" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B49" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C49" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D49" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E49" t="s">
         <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="G49" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="H49" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="I49" t="s">
         <v>103</v>
@@ -6682,28 +6785,28 @@
         <v>64</v>
       </c>
       <c r="K49" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="M49">
         <v>8</v>
       </c>
       <c r="N49" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="O49" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="P49">
         <v>8</v>
       </c>
       <c r="Q49" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="R49" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="S49">
         <v>24</v>
@@ -6741,28 +6844,28 @@
     </row>
     <row r="50" customHeight="1" spans="1:29">
       <c r="A50" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B50" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C50" t="s">
         <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="E50" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="F50" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G50" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="H50" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="I50" t="s">
         <v>103</v>
@@ -6771,19 +6874,19 @@
         <v>74</v>
       </c>
       <c r="K50" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="L50" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="O50" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="P50">
         <v>1</v>
@@ -6792,16 +6895,16 @@
         <v>98</v>
       </c>
       <c r="R50" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="S50">
         <v>35</v>
       </c>
       <c r="T50" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="U50" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="V50" t="s">
         <v>59</v>
@@ -6830,28 +6933,28 @@
     </row>
     <row r="51" customHeight="1" spans="1:29">
       <c r="A51" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="B51" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C51" t="s">
         <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="E51" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="F51" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G51" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="H51" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="I51" t="s">
         <v>51</v>
@@ -6860,10 +6963,10 @@
         <v>64</v>
       </c>
       <c r="K51" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="L51" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -6872,25 +6975,25 @@
         <v>171</v>
       </c>
       <c r="O51" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="P51">
         <v>2</v>
       </c>
       <c r="Q51" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="R51" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="S51">
         <v>32</v>
       </c>
       <c r="T51" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="U51" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="V51" t="s">
         <v>47</v>
@@ -6908,10 +7011,10 @@
         <v>8</v>
       </c>
       <c r="AA51" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="AB51" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AC51" t="s">
         <v>61</v>
@@ -6919,28 +7022,28 @@
     </row>
     <row r="52" customHeight="1" spans="1:29">
       <c r="A52" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="B52" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C52" t="s">
         <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="E52" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="F52" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G52" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="H52" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="I52" t="s">
         <v>63</v>
@@ -6949,37 +7052,37 @@
         <v>85</v>
       </c>
       <c r="K52" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="L52" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="M52">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="O52" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="P52">
         <v>3</v>
       </c>
       <c r="Q52" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="R52" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="S52">
         <v>38</v>
       </c>
       <c r="T52" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="U52" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="V52" t="s">
         <v>59</v>
@@ -6997,10 +7100,10 @@
         <v>8.25</v>
       </c>
       <c r="AA52" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AB52" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AC52" t="s">
         <v>61</v>
@@ -7008,28 +7111,28 @@
     </row>
     <row r="53" customHeight="1" spans="1:29">
       <c r="A53" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="B53" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C53" t="s">
         <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="E53" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="F53" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G53" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="H53" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="I53" t="s">
         <v>73</v>
@@ -7038,37 +7141,37 @@
         <v>38</v>
       </c>
       <c r="K53" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="L53" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="M53">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="O53" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="P53">
         <v>4</v>
       </c>
       <c r="Q53" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="R53" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="S53">
         <v>40</v>
       </c>
       <c r="T53" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="U53" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="V53" t="s">
         <v>59</v>
@@ -7086,10 +7189,10 @@
         <v>8.5</v>
       </c>
       <c r="AA53" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AB53" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AC53" t="s">
         <v>61</v>
@@ -7097,28 +7200,28 @@
     </row>
     <row r="54" customHeight="1" spans="1:29">
       <c r="A54" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="B54" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C54" t="s">
         <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="E54" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="F54" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G54" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="H54" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="I54" t="s">
         <v>84</v>
@@ -7127,37 +7230,37 @@
         <v>74</v>
       </c>
       <c r="K54" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="L54" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="M54">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="O54" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="P54">
         <v>5</v>
       </c>
       <c r="Q54" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="R54" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="S54">
         <v>24</v>
       </c>
       <c r="T54" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="U54" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="V54" t="s">
         <v>59</v>
@@ -7175,10 +7278,10 @@
         <v>8</v>
       </c>
       <c r="AA54" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="AB54" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AC54" t="s">
         <v>61</v>
@@ -7186,28 +7289,28 @@
     </row>
     <row r="55" customHeight="1" spans="1:29">
       <c r="A55" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="B55" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C55" t="s">
         <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="E55" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="F55" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G55" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="H55" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="I55" t="s">
         <v>94</v>
@@ -7216,37 +7319,37 @@
         <v>85</v>
       </c>
       <c r="K55" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="L55" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="M55">
         <v>6</v>
       </c>
       <c r="N55" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="O55" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="P55">
         <v>6</v>
       </c>
       <c r="Q55" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="R55" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="S55">
         <v>29</v>
       </c>
       <c r="T55" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="U55" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="V55" t="s">
         <v>59</v>
@@ -7264,10 +7367,10 @@
         <v>7</v>
       </c>
       <c r="AA55" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="AB55" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AC55" t="s">
         <v>61</v>
@@ -7275,28 +7378,28 @@
     </row>
     <row r="56" customHeight="1" spans="1:29">
       <c r="A56" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="B56" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C56" t="s">
         <v>99</v>
       </c>
       <c r="D56" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="E56" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="F56" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G56" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="H56" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="I56" t="s">
         <v>176</v>
@@ -7305,37 +7408,37 @@
         <v>38</v>
       </c>
       <c r="K56" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="L56" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="M56">
         <v>7</v>
       </c>
       <c r="N56" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="O56" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="P56">
         <v>7</v>
       </c>
       <c r="Q56" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="R56" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="S56">
         <v>27</v>
       </c>
       <c r="T56" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="U56" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="V56" t="s">
         <v>59</v>
@@ -7353,10 +7456,10 @@
         <v>7.5</v>
       </c>
       <c r="AA56" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="AB56" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AC56" t="s">
         <v>61</v>
@@ -7364,28 +7467,28 @@
     </row>
     <row r="57" customHeight="1" spans="1:29">
       <c r="A57" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="B57" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C57" t="s">
         <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="E57" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="F57" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="G57" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="H57" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="I57" t="s">
         <v>112</v>
@@ -7394,37 +7497,37 @@
         <v>64</v>
       </c>
       <c r="K57" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="L57" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="M57">
         <v>8</v>
       </c>
       <c r="N57" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="O57" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="P57">
         <v>8</v>
       </c>
       <c r="Q57" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="R57" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="S57">
         <v>35</v>
       </c>
       <c r="T57" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="U57" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="V57" t="s">
         <v>47</v>
@@ -7442,10 +7545,10 @@
         <v>8</v>
       </c>
       <c r="AA57" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="AB57" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AC57" t="s">
         <v>61</v>

--- a/asc_network.xlsx
+++ b/asc_network.xlsx
@@ -251,7 +251,7 @@
     <t>Lewor Staff</t>
   </si>
   <si>
-    <t>Lewor Cafeteria Head</t>
+    <t xml:space="preserve">Lewor Dining Ops Lead </t>
   </si>
   <si>
     <t>Rodnar R</t>
@@ -377,7 +377,7 @@
     <t>Lewor Frat Member</t>
   </si>
   <si>
-    <t>??? Fraternity President</t>
+    <t>APT Fraternity President</t>
   </si>
   <si>
     <t>Peter G</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">The Rom-Com Fighter </t>
   </si>
   <si>
-    <t>??? Fraternity Member</t>
+    <t>APT Fraternity Member</t>
   </si>
   <si>
     <t>Zack D</t>
@@ -3279,7 +3279,7 @@
   <dimension ref="A1:AH57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>

--- a/asc_network.xlsx
+++ b/asc_network.xlsx
@@ -203,7 +203,7 @@
     <t>Lexena Merchant</t>
   </si>
   <si>
-    <t>Wellness Merchant</t>
+    <t>Wellness Retail Associate</t>
   </si>
   <si>
     <t>Justin S</t>
@@ -3279,7 +3279,7 @@
   <dimension ref="A1:AH57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>

--- a/asc_network.xlsx
+++ b/asc_network.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="751">
   <si>
     <t xml:space="preserve">Alias</t>
   </si>
@@ -115,18 +115,18 @@
     <t xml:space="preserve">Band</t>
   </si>
   <si>
+    <t xml:space="preserve">Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HiddenRole</t>
+  </si>
+  <si>
     <t xml:space="preserve">Archetype</t>
   </si>
   <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HiddenRole</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tony M</t>
   </si>
   <si>
@@ -193,9 +193,6 @@
     <t xml:space="preserve">House_NDistrict_Tony_M</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ageless Merchant</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lexena Merchant</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t xml:space="preserve">House_NEDistrict_Justin_S</t>
   </si>
   <si>
-    <t xml:space="preserve">The Culinary Alchemist</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lewor Staff</t>
   </si>
   <si>
@@ -295,9 +289,6 @@
     <t xml:space="preserve">House_NEDistrict_Rodnar_R</t>
   </si>
   <si>
-    <t xml:space="preserve">The Bureaucratic Sovereign</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lewor Admin</t>
   </si>
   <si>
@@ -343,9 +334,6 @@
     <t xml:space="preserve">House_NEDistrict_John_P</t>
   </si>
   <si>
-    <t xml:space="preserve">The Quiet Constant</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lewor Librarian</t>
   </si>
   <si>
@@ -391,9 +379,6 @@
     <t xml:space="preserve">House_FraternityHouse_Karter_H</t>
   </si>
   <si>
-    <t xml:space="preserve">The Charismatic Frat Lead</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lewor Frat Member</t>
   </si>
   <si>
@@ -436,9 +421,6 @@
     <t xml:space="preserve">House_NEDistrict_Peter_G</t>
   </si>
   <si>
-    <t xml:space="preserve">The Stoic Coach</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lewor Faculty</t>
   </si>
   <si>
@@ -481,9 +463,6 @@
     <t xml:space="preserve">House_NEDistrict_Joe_B</t>
   </si>
   <si>
-    <t xml:space="preserve">The Honest Coach</t>
-  </si>
-  <si>
     <t xml:space="preserve">Football Coach</t>
   </si>
   <si>
@@ -523,9 +502,6 @@
     <t xml:space="preserve">House_NEDistrict_Xano_D</t>
   </si>
   <si>
-    <t xml:space="preserve">The Temperamental Purist</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wrestling Coach</t>
   </si>
   <si>
@@ -586,9 +562,6 @@
     <t xml:space="preserve">House_NDistrict_Quinton_J</t>
   </si>
   <si>
-    <t xml:space="preserve">The Merchant</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pharmacy Market Retailer</t>
   </si>
   <si>
@@ -625,9 +598,6 @@
     <t xml:space="preserve">House_SWDistrict_Milan_P</t>
   </si>
   <si>
-    <t xml:space="preserve">The Architect</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chef</t>
   </si>
   <si>
@@ -667,9 +637,6 @@
     <t xml:space="preserve">House_SEDistrict_Max_S</t>
   </si>
   <si>
-    <t xml:space="preserve">The Analyst</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cafe Staff</t>
   </si>
   <si>
@@ -706,9 +673,6 @@
     <t xml:space="preserve">House_SEDistrict_Andrew_B</t>
   </si>
   <si>
-    <t xml:space="preserve">The Auditor</t>
-  </si>
-  <si>
     <t xml:space="preserve">SGP Employee</t>
   </si>
   <si>
@@ -748,9 +712,6 @@
     <t xml:space="preserve">House_SEDistrict_Brock_C</t>
   </si>
   <si>
-    <t xml:space="preserve">The Liability</t>
-  </si>
-  <si>
     <t xml:space="preserve">Senior Claims Analyst</t>
   </si>
   <si>
@@ -784,9 +745,6 @@
     <t xml:space="preserve">House_SEDistrict_Ramon_N</t>
   </si>
   <si>
-    <t xml:space="preserve">The Fixer</t>
-  </si>
-  <si>
     <t xml:space="preserve">IT Systems Admin</t>
   </si>
   <si>
@@ -820,9 +778,6 @@
     <t xml:space="preserve">House_SEDistrict_Alex_L</t>
   </si>
   <si>
-    <t xml:space="preserve">The Rival</t>
-  </si>
-  <si>
     <t xml:space="preserve">Risk Assessment Spec.</t>
   </si>
   <si>
@@ -850,9 +805,6 @@
     <t xml:space="preserve">House_SEDistrict_Danny_S</t>
   </si>
   <si>
-    <t xml:space="preserve">The Enforcer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Project Coordinator </t>
   </si>
   <si>
@@ -910,9 +862,6 @@
     <t xml:space="preserve">House_NDistrict_Jay_P</t>
   </si>
   <si>
-    <t xml:space="preserve">The Heir</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grocery Merchant</t>
   </si>
   <si>
@@ -994,9 +943,6 @@
     <t xml:space="preserve">House_SEDistrict_Tommy_P</t>
   </si>
   <si>
-    <t xml:space="preserve">The Supplier</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beach Staff</t>
   </si>
   <si>
@@ -1036,9 +982,6 @@
     <t xml:space="preserve">House_CountryVille_Ridge_C</t>
   </si>
   <si>
-    <t xml:space="preserve">The Bodyguard</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sheriff</t>
   </si>
   <si>
@@ -1078,9 +1021,6 @@
     <t xml:space="preserve">House_CountryVille_Jason_S</t>
   </si>
   <si>
-    <t xml:space="preserve">The Operational Commander</t>
-  </si>
-  <si>
     <t xml:space="preserve">Operational Commander</t>
   </si>
   <si>
@@ -1114,9 +1054,6 @@
     <t xml:space="preserve">House_CountryVille_Juan_L</t>
   </si>
   <si>
-    <t xml:space="preserve">The Gourmet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Agricultural Lead</t>
   </si>
   <si>
@@ -1150,9 +1087,6 @@
     <t xml:space="preserve">House_CountryVille_Adam_L</t>
   </si>
   <si>
-    <t xml:space="preserve">The Landowner</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cattle Lead</t>
   </si>
   <si>
@@ -1183,9 +1117,6 @@
     <t xml:space="preserve">House_CountryVille_Jmac_</t>
   </si>
   <si>
-    <t xml:space="preserve">The Wheelman</t>
-  </si>
-  <si>
     <t xml:space="preserve">Town Vet</t>
   </si>
   <si>
@@ -1246,9 +1177,6 @@
     <t xml:space="preserve">House_NDistrict_Cyrus_K</t>
   </si>
   <si>
-    <t xml:space="preserve">The Quartermaster</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shady Town Merchant</t>
   </si>
   <si>
@@ -1291,9 +1219,6 @@
     <t xml:space="preserve">House_SWDistrict_London_F</t>
   </si>
   <si>
-    <t xml:space="preserve">The Host</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mercenary</t>
   </si>
   <si>
@@ -1333,9 +1258,6 @@
     <t xml:space="preserve">House_SWDistrict_Ray_R</t>
   </si>
   <si>
-    <t xml:space="preserve">The Bartender</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bartender</t>
   </si>
   <si>
@@ -1366,9 +1288,6 @@
     <t xml:space="preserve">House_NWDistrict_Danny_M</t>
   </si>
   <si>
-    <t xml:space="preserve">The Bouncer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Surveillance Expert</t>
   </si>
   <si>
@@ -1402,9 +1321,6 @@
     <t xml:space="preserve">House_NWDistrict_Max_C</t>
   </si>
   <si>
-    <t xml:space="preserve">The Hitman</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tactical Leader</t>
   </si>
   <si>
@@ -1435,9 +1351,6 @@
     <t xml:space="preserve">House_NWDistrict_GI_J</t>
   </si>
   <si>
-    <t xml:space="preserve">The Soldier</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sniper</t>
   </si>
   <si>
@@ -1468,9 +1381,6 @@
     <t xml:space="preserve">House_NWDistrict_Parker_S</t>
   </si>
   <si>
-    <t xml:space="preserve">The Hacker</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cyber Security</t>
   </si>
   <si>
@@ -1504,9 +1414,6 @@
     <t xml:space="preserve">House_NWDistrict_Thor_J</t>
   </si>
   <si>
-    <t xml:space="preserve">The Brute</t>
-  </si>
-  <si>
     <t xml:space="preserve">Demolitions Expert</t>
   </si>
   <si>
@@ -1564,16 +1471,13 @@
     <t xml:space="preserve">House_NDistrict_Richard_G</t>
   </si>
   <si>
-    <t xml:space="preserve">The Tech CEO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tech Gadget Retailer</t>
   </si>
   <si>
-    <t xml:space="preserve">Air Interceptor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counterstroke</t>
+    <t xml:space="preserve">Backchannel Broker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Late-Fee Closer</t>
   </si>
   <si>
     <t xml:space="preserve">Tommy W</t>
@@ -1600,19 +1504,16 @@
     <t xml:space="preserve">House_NDistrict_Tommy_W</t>
   </si>
   <si>
-    <t xml:space="preserve">The Security Chief</t>
-  </si>
-  <si>
     <t xml:space="preserve">DD Staff</t>
   </si>
   <si>
     <t xml:space="preserve">Vending Ops Lead </t>
   </si>
   <si>
-    <t xml:space="preserve">Sky Scout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Momentum Seeker</t>
+    <t xml:space="preserve">Route Custodian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restock Marshal</t>
   </si>
   <si>
     <t xml:space="preserve">Ryan D</t>
@@ -1642,19 +1543,16 @@
     <t xml:space="preserve">House_SWDistrict_Ryan_D</t>
   </si>
   <si>
-    <t xml:space="preserve">The Engineer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dance Bar Staff</t>
   </si>
   <si>
     <t xml:space="preserve">Laserbeat Arcade Host</t>
   </si>
   <si>
-    <t xml:space="preserve">Holdfast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quiet Anchor</t>
+    <t xml:space="preserve">Neon Floorboss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Rules</t>
   </si>
   <si>
     <t xml:space="preserve">Oliver F</t>
@@ -1684,19 +1582,13 @@
     <t xml:space="preserve">House_SWDistrict_Oliver_F</t>
   </si>
   <si>
-    <t xml:space="preserve">The Corporate Fixer</t>
-  </si>
-  <si>
     <t xml:space="preserve">DD Employee</t>
   </si>
   <si>
     <t xml:space="preserve">QA Analyst</t>
   </si>
   <si>
-    <t xml:space="preserve">Threat Screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watchful Blade</t>
+    <t xml:space="preserve">Format Warden</t>
   </si>
   <si>
     <t xml:space="preserve">Codey S</t>
@@ -1723,16 +1615,10 @@
     <t xml:space="preserve">House_SWDistrict_Codey_S</t>
   </si>
   <si>
-    <t xml:space="preserve">The White Hat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Delivery Manager</t>
   </si>
   <si>
-    <t xml:space="preserve">High Runner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flash Signal</t>
+    <t xml:space="preserve">Dispatch Spark</t>
   </si>
   <si>
     <t xml:space="preserve">Brick D</t>
@@ -1756,16 +1642,13 @@
     <t xml:space="preserve">House_SWDistrict_Brick_D</t>
   </si>
   <si>
-    <t xml:space="preserve">The Wall</t>
-  </si>
-  <si>
     <t xml:space="preserve">Risk and Controls</t>
   </si>
   <si>
-    <t xml:space="preserve">Gate Ram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Wedge</t>
+    <t xml:space="preserve">Controls Ram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audit Wedge</t>
   </si>
   <si>
     <t xml:space="preserve">Dan D</t>
@@ -1786,16 +1669,13 @@
     <t xml:space="preserve">House_NWDistrict_Dan_D</t>
   </si>
   <si>
-    <t xml:space="preserve">The Intern</t>
-  </si>
-  <si>
     <t xml:space="preserve">Junior Developer</t>
   </si>
   <si>
-    <t xml:space="preserve">Ground Lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight of Tomorrow</t>
+    <t xml:space="preserve">Shadow Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotfix Crown</t>
   </si>
   <si>
     <t xml:space="preserve">Sam S</t>
@@ -1819,16 +1699,10 @@
     <t xml:space="preserve">House_SWDistrict_Sam_S</t>
   </si>
   <si>
-    <t xml:space="preserve">The Worker</t>
-  </si>
-  <si>
     <t xml:space="preserve">Network Security Engr</t>
   </si>
   <si>
-    <t xml:space="preserve">Linebreaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breakthrough</t>
+    <t xml:space="preserve">Perimeter Architect</t>
   </si>
   <si>
     <t xml:space="preserve">Logan X</t>
@@ -1876,9 +1750,6 @@
     <t xml:space="preserve">House_NDistrict_Logan_X</t>
   </si>
   <si>
-    <t xml:space="preserve">The Stained Patriarch </t>
-  </si>
-  <si>
     <t xml:space="preserve">Red-Light Retailer </t>
   </si>
   <si>
@@ -1918,9 +1789,6 @@
     <t xml:space="preserve">House_SWDistrict_Josh_R</t>
   </si>
   <si>
-    <t xml:space="preserve">The Borrowed Brother </t>
-  </si>
-  <si>
     <t xml:space="preserve">Unity Staff</t>
   </si>
   <si>
@@ -1960,9 +1828,6 @@
     <t xml:space="preserve">House_CollegeDorm_Kyle_M</t>
   </si>
   <si>
-    <t xml:space="preserve">The Wave-Crowned </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lifeguard</t>
   </si>
   <si>
@@ -1993,9 +1858,6 @@
     <t xml:space="preserve">House_FraternityHouse_Luke_C</t>
   </si>
   <si>
-    <t xml:space="preserve">The Rom-Com Fighter </t>
-  </si>
-  <si>
     <t xml:space="preserve">APT Fraternity Member</t>
   </si>
   <si>
@@ -2032,9 +1894,6 @@
     <t xml:space="preserve">House_FraternityHouse_Zack_D</t>
   </si>
   <si>
-    <t xml:space="preserve">The Hardcase </t>
-  </si>
-  <si>
     <t xml:space="preserve">Strike Hand</t>
   </si>
   <si>
@@ -2062,9 +1921,6 @@
     <t xml:space="preserve">House_FraternityHouse_Chase_A</t>
   </si>
   <si>
-    <t xml:space="preserve">The Exit Clause </t>
-  </si>
-  <si>
     <t xml:space="preserve">Unity Frat Member</t>
   </si>
   <si>
@@ -2095,9 +1951,6 @@
     <t xml:space="preserve">House_FraternityHouse_Johnny_L</t>
   </si>
   <si>
-    <t xml:space="preserve">The Unwelcome </t>
-  </si>
-  <si>
     <t xml:space="preserve">Spotlight Decoy</t>
   </si>
   <si>
@@ -2119,9 +1972,6 @@
     <t xml:space="preserve">House_FraternityHouse_Ryan_L</t>
   </si>
   <si>
-    <t xml:space="preserve">The Mischief Enforcer </t>
-  </si>
-  <si>
     <t xml:space="preserve">Diversionist</t>
   </si>
   <si>
@@ -2167,9 +2017,6 @@
     <t xml:space="preserve">House_NDistrict_Peter_K</t>
   </si>
   <si>
-    <t xml:space="preserve">The Access Architect </t>
-  </si>
-  <si>
     <t xml:space="preserve">Luxury Clothier </t>
   </si>
   <si>
@@ -2203,9 +2050,6 @@
     <t xml:space="preserve">House_CollegeDorm_Eddie_D</t>
   </si>
   <si>
-    <t xml:space="preserve">The Unfootnoted </t>
-  </si>
-  <si>
     <t xml:space="preserve">Unity Student</t>
   </si>
   <si>
@@ -2242,9 +2086,6 @@
     <t xml:space="preserve">House_NWDistrict_Criss_S</t>
   </si>
   <si>
-    <t xml:space="preserve">The Standards Warden </t>
-  </si>
-  <si>
     <t xml:space="preserve">Unity Executive</t>
   </si>
   <si>
@@ -2281,9 +2122,6 @@
     <t xml:space="preserve">House_NWDistrict_Filthy_R</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ledger Warden </t>
-  </si>
-  <si>
     <t xml:space="preserve">Unity Treasurer</t>
   </si>
   <si>
@@ -2323,9 +2161,6 @@
     <t xml:space="preserve">House_CollegeDorm_Kai_J</t>
   </si>
   <si>
-    <t xml:space="preserve">The Spotlight Seeker </t>
-  </si>
-  <si>
     <t xml:space="preserve">Conservatory Icon </t>
   </si>
   <si>
@@ -2362,9 +2197,6 @@
     <t xml:space="preserve">House_CollegeDorm_Matty_I</t>
   </si>
   <si>
-    <t xml:space="preserve">The Receipt Keeper </t>
-  </si>
-  <si>
     <t xml:space="preserve">Molecular Lead </t>
   </si>
   <si>
@@ -2398,9 +2230,6 @@
     <t xml:space="preserve">House_CollegeDorm_Jodie_J</t>
   </si>
   <si>
-    <t xml:space="preserve">The Narrative Editor </t>
-  </si>
-  <si>
     <t xml:space="preserve">Curation Lead </t>
   </si>
   <si>
@@ -2435,9 +2264,6 @@
   </si>
   <si>
     <t xml:space="preserve">House_CollegeDorm_Apollo_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Event Gate </t>
   </si>
   <si>
     <t xml:space="preserve">Pharmacognosy Icon </t>
@@ -2648,10 +2474,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ57"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI6" activeCellId="0" sqref="AI6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF13" activeCellId="0" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2687,11 +2513,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="5.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="23.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="23.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="19.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="23.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,9 +2625,6 @@
       <c r="AI1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -2910,16 +2732,13 @@
       <c r="AI2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="0" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>37</v>
@@ -2952,25 +2771,25 @@
         <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>32</v>
@@ -2979,22 +2798,22 @@
         <v>32</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W3" s="0" t="s">
         <v>42</v>
       </c>
       <c r="X3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="Z3" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="AA3" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="AA3" s="0" t="s">
-        <v>74</v>
       </c>
       <c r="AB3" s="0" t="n">
         <v>68.5</v>
@@ -3009,27 +2828,24 @@
         <v>7.25</v>
       </c>
       <c r="AF3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="AG3" s="0" t="s">
+      <c r="AH3" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="AH3" s="0" t="s">
+      <c r="AI3" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="AI3" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ3" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>37</v>
@@ -3062,25 +2878,25 @@
         <v>44</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="Q4" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="R4" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>88</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>48</v>
@@ -3089,22 +2905,22 @@
         <v>48</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W4" s="0" t="s">
         <v>42</v>
       </c>
       <c r="X4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="0" t="s">
+      <c r="Z4" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="Z4" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="AA4" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AB4" s="0" t="n">
         <v>74</v>
@@ -3119,27 +2935,24 @@
         <v>7</v>
       </c>
       <c r="AF4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH4" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="AG4" s="0" t="s">
+      <c r="AI4" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="AH4" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI4" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ4" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>37</v>
@@ -3172,25 +2985,25 @@
         <v>44</v>
       </c>
       <c r="M5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="Q5" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="R5" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="S5" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>29</v>
@@ -3199,22 +3012,22 @@
         <v>29</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="W5" s="0" t="s">
         <v>42</v>
       </c>
       <c r="X5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="Z5" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="Z5" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="AA5" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AB5" s="0" t="n">
         <v>70</v>
@@ -3229,27 +3042,24 @@
         <v>8.25</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AH5" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ5" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>37</v>
@@ -3279,28 +3089,28 @@
         <v>5</v>
       </c>
       <c r="L6" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="Q6" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="R6" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="S6" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>120</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>24</v>
@@ -3309,22 +3119,22 @@
         <v>35</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="X6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y6" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="Z6" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AB6" s="0" t="n">
         <v>71</v>
@@ -3339,27 +3149,24 @@
         <v>6.5</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AH6" s="0" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ6" s="0" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>37</v>
@@ -3392,25 +3199,25 @@
         <v>44</v>
       </c>
       <c r="M7" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="S7" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>27</v>
@@ -3419,22 +3226,22 @@
         <v>27</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="W7" s="0" t="s">
         <v>42</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y7" s="0" t="s">
         <v>55</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AB7" s="0" t="n">
         <v>66</v>
@@ -3449,27 +3256,24 @@
         <v>6.5</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AG7" s="0" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AH7" s="0" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AI7" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ7" s="0" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>37</v>
@@ -3502,25 +3306,25 @@
         <v>44</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>22</v>
@@ -3529,22 +3333,22 @@
         <v>22</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="W8" s="0" t="s">
         <v>42</v>
       </c>
       <c r="X8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y8" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y8" s="0" t="s">
+      <c r="Z8" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="Z8" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="AA8" s="0" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AB8" s="0" t="n">
         <v>76</v>
@@ -3559,27 +3363,24 @@
         <v>9</v>
       </c>
       <c r="AF8" s="0" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="AG8" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="AH8" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AI8" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ8" s="0" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>37</v>
@@ -3612,25 +3413,25 @@
         <v>44</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>31</v>
@@ -3639,22 +3440,22 @@
         <v>31</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="W9" s="0" t="s">
         <v>42</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y9" s="0" t="s">
         <v>55</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AB9" s="0" t="n">
         <v>68</v>
@@ -3669,48 +3470,45 @@
         <v>7</v>
       </c>
       <c r="AF9" s="0" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="AG9" s="0" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="AH9" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ9" s="0" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>179</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>2</v>
@@ -3719,28 +3517,28 @@
         <v>1</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>45</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>32</v>
@@ -3749,7 +3547,7 @@
         <v>32</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="W10" s="0" t="s">
         <v>53</v>
@@ -3758,13 +3556,13 @@
         <v>54</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z10" s="0" t="s">
         <v>54</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AB10" s="0" t="n">
         <v>72</v>
@@ -3779,48 +3577,45 @@
         <v>7.5</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="AG10" s="0" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="AH10" s="0" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="AJ10" s="0" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>2</v>
@@ -3829,28 +3624,28 @@
         <v>2</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>35</v>
@@ -3859,7 +3654,7 @@
         <v>35</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="W11" s="0" t="s">
         <v>53</v>
@@ -3868,13 +3663,13 @@
         <v>54</v>
       </c>
       <c r="Y11" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AB11" s="0" t="n">
         <v>72</v>
@@ -3889,48 +3684,45 @@
         <v>8</v>
       </c>
       <c r="AF11" s="0" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="AG11" s="0" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="AH11" s="0" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ11" s="0" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>2</v>
@@ -3939,28 +3731,28 @@
         <v>3</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>46</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>27</v>
@@ -3969,22 +3761,22 @@
         <v>27</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="Y12" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="AB12" s="0" t="n">
         <v>69</v>
@@ -3999,48 +3791,45 @@
         <v>7.5</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AG12" s="0" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AH12" s="0" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AI12" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ12" s="0" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>2</v>
@@ -4049,25 +3838,25 @@
         <v>4</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S13" s="0" t="s">
         <v>40</v>
@@ -4079,22 +3868,22 @@
         <v>30</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="AB13" s="0" t="n">
         <v>75</v>
@@ -4109,48 +3898,45 @@
         <v>8</v>
       </c>
       <c r="AF13" s="0" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="AG13" s="0" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AH13" s="0" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="AI13" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ13" s="0" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>2</v>
@@ -4159,28 +3945,28 @@
         <v>5</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>38</v>
@@ -4189,22 +3975,22 @@
         <v>38</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="AB14" s="0" t="n">
         <v>70</v>
@@ -4219,48 +4005,45 @@
         <v>8</v>
       </c>
       <c r="AF14" s="0" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="AG14" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AH14" s="0" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="AI14" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ14" s="0" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>2</v>
@@ -4269,28 +4052,28 @@
         <v>6</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>30</v>
@@ -4299,22 +4082,22 @@
         <v>30</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="Y15" s="0" t="s">
         <v>55</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="AB15" s="0" t="n">
         <v>74</v>
@@ -4329,48 +4112,45 @@
         <v>6.25</v>
       </c>
       <c r="AF15" s="0" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="AG15" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AH15" s="0" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="AI15" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="AJ15" s="0" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>2</v>
@@ -4379,28 +4159,28 @@
         <v>7</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>46</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="T16" s="0" t="n">
         <v>35</v>
@@ -4409,22 +4189,22 @@
         <v>35</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="AB16" s="0" t="n">
         <v>73</v>
@@ -4439,48 +4219,45 @@
         <v>7.5</v>
       </c>
       <c r="AF16" s="0" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="AG16" s="0" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="AH16" s="0" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="AI16" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="AJ16" s="0" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>2</v>
@@ -4489,28 +4266,28 @@
         <v>8</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>32</v>
@@ -4519,22 +4296,22 @@
         <v>32</v>
       </c>
       <c r="V17" s="0" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="Y17" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="AB17" s="0" t="n">
         <v>69</v>
@@ -4549,48 +4326,45 @@
         <v>7.5</v>
       </c>
       <c r="AF17" s="0" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="AG17" s="0" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="AH17" s="0" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="AI17" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="AJ17" s="0" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>3</v>
@@ -4599,28 +4373,28 @@
         <v>1</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>45</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>25</v>
@@ -4629,7 +4403,7 @@
         <v>25</v>
       </c>
       <c r="V18" s="0" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="W18" s="0" t="s">
         <v>53</v>
@@ -4644,7 +4418,7 @@
         <v>54</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="AB18" s="0" t="n">
         <v>71</v>
@@ -4659,48 +4433,45 @@
         <v>7.5</v>
       </c>
       <c r="AF18" s="0" t="s">
-        <v>296</v>
+        <v>57</v>
       </c>
       <c r="AG18" s="0" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="AH18" s="0" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="AI18" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="AJ18" s="0" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>3</v>
@@ -4709,28 +4480,28 @@
         <v>2</v>
       </c>
       <c r="L19" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="S19" s="0" t="s">
         <v>289</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q19" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="R19" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="S19" s="0" t="s">
-        <v>306</v>
       </c>
       <c r="T19" s="0" t="n">
         <v>30</v>
@@ -4739,22 +4510,22 @@
         <v>30</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="Y19" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z19" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="AB19" s="0" t="n">
         <v>72</v>
@@ -4769,48 +4540,45 @@
         <v>6.5</v>
       </c>
       <c r="AF19" s="0" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="AG19" s="0" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="AH19" s="0" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="AI19" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="AJ19" s="0" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>3</v>
@@ -4819,28 +4587,28 @@
         <v>3</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="T20" s="0" t="n">
         <v>24</v>
@@ -4849,22 +4617,22 @@
         <v>24</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="Y20" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z20" s="0" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AA20" s="0" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="AB20" s="0" t="n">
         <v>72</v>
@@ -4879,48 +4647,45 @@
         <v>7</v>
       </c>
       <c r="AF20" s="0" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="AG20" s="0" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="AH20" s="0" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="AI20" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="AJ20" s="0" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>3</v>
@@ -4929,28 +4694,28 @@
         <v>4</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="T21" s="0" t="n">
         <v>32</v>
@@ -4959,22 +4724,22 @@
         <v>32</v>
       </c>
       <c r="V21" s="0" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="Y21" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z21" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="AA21" s="0" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="AB21" s="0" t="n">
         <v>69</v>
@@ -4989,48 +4754,45 @@
         <v>7</v>
       </c>
       <c r="AF21" s="0" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="AG21" s="0" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AH21" s="0" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="AI21" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="AJ21" s="0" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>3</v>
@@ -5039,28 +4801,28 @@
         <v>5</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="T22" s="0" t="n">
         <v>27</v>
@@ -5069,22 +4831,22 @@
         <v>27</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="Y22" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z22" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="AA22" s="0" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="AB22" s="0" t="n">
         <v>74</v>
@@ -5099,48 +4861,45 @@
         <v>7.5</v>
       </c>
       <c r="AF22" s="0" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="AG22" s="0" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="AH22" s="0" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="AI22" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="AJ22" s="0" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>3</v>
@@ -5149,28 +4908,28 @@
         <v>6</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>46</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="T23" s="0" t="n">
         <v>35</v>
@@ -5179,22 +4938,22 @@
         <v>35</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="Y23" s="0" t="s">
         <v>55</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="AA23" s="0" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="AB23" s="0" t="n">
         <v>72</v>
@@ -5209,48 +4968,45 @@
         <v>7.25</v>
       </c>
       <c r="AF23" s="0" t="s">
-        <v>364</v>
+        <v>292</v>
       </c>
       <c r="AG23" s="0" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="AH23" s="0" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="AI23" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="AJ23" s="0" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>3</v>
@@ -5259,28 +5015,28 @@
         <v>7</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="T24" s="0" t="n">
         <v>38</v>
@@ -5289,22 +5045,22 @@
         <v>38</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z24" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="AA24" s="0" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="AB24" s="0" t="n">
         <v>72</v>
@@ -5319,48 +5075,45 @@
         <v>7</v>
       </c>
       <c r="AF24" s="0" t="s">
-        <v>376</v>
+        <v>292</v>
       </c>
       <c r="AG24" s="0" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="AH24" s="0" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="AI24" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ24" s="0" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>3</v>
@@ -5369,25 +5122,25 @@
         <v>8</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>46</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="T25" s="0" t="n">
         <v>26</v>
@@ -5396,22 +5149,22 @@
         <v>26</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="Y25" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z25" s="0" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="AA25" s="0" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="AB25" s="0" t="n">
         <v>73</v>
@@ -5426,48 +5179,45 @@
         <v>8.25</v>
       </c>
       <c r="AF25" s="0" t="s">
-        <v>387</v>
+        <v>292</v>
       </c>
       <c r="AG25" s="0" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="AH25" s="0" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="AI25" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="AJ25" s="0" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>4</v>
@@ -5476,28 +5226,28 @@
         <v>1</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>45</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="T26" s="0" t="n">
         <v>36</v>
@@ -5506,22 +5256,22 @@
         <v>36</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="Y26" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z26" s="0" t="s">
         <v>54</v>
       </c>
       <c r="AA26" s="0" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="AB26" s="0" t="n">
         <v>75</v>
@@ -5536,48 +5286,45 @@
         <v>8.5</v>
       </c>
       <c r="AF26" s="0" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="AG26" s="0" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="AH26" s="0" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="AI26" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="AJ26" s="0" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>4</v>
@@ -5586,28 +5333,28 @@
         <v>2</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="T27" s="0" t="n">
         <v>33</v>
@@ -5616,22 +5363,22 @@
         <v>33</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="Y27" s="0" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="Z27" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AA27" s="0" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="AB27" s="0" t="n">
         <v>72</v>
@@ -5646,48 +5393,45 @@
         <v>6.5</v>
       </c>
       <c r="AF27" s="0" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="AG27" s="0" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="AH27" s="0" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="AI27" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="AJ27" s="0" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>4</v>
@@ -5696,28 +5440,28 @@
         <v>3</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="T28" s="0" t="n">
         <v>29</v>
@@ -5726,22 +5470,22 @@
         <v>29</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="X28" s="0" t="s">
         <v>54</v>
       </c>
       <c r="Y28" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z28" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AA28" s="0" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="AB28" s="0" t="n">
         <v>76</v>
@@ -5756,48 +5500,45 @@
         <v>6.25</v>
       </c>
       <c r="AF28" s="0" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="AG28" s="0" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="AH28" s="0" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="AI28" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="AJ28" s="0" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>4</v>
@@ -5806,28 +5547,28 @@
         <v>4</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="T29" s="0" t="n">
         <v>26</v>
@@ -5836,22 +5577,22 @@
         <v>26</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="Y29" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z29" s="0" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="AA29" s="0" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="AB29" s="0" t="n">
         <v>76</v>
@@ -5866,48 +5607,45 @@
         <v>8</v>
       </c>
       <c r="AF29" s="0" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="AG29" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH29" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="AI29" s="0" t="s">
         <v>424</v>
-      </c>
-      <c r="AH29" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="AI29" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="AJ29" s="0" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>4</v>
@@ -5916,28 +5654,28 @@
         <v>5</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>46</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="T30" s="0" t="n">
         <v>35</v>
@@ -5946,22 +5684,22 @@
         <v>35</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="Y30" s="0" t="s">
         <v>55</v>
       </c>
       <c r="Z30" s="0" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="AA30" s="0" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="AB30" s="0" t="n">
         <v>70</v>
@@ -5976,48 +5714,45 @@
         <v>8</v>
       </c>
       <c r="AF30" s="0" t="s">
-        <v>460</v>
+        <v>399</v>
       </c>
       <c r="AG30" s="0" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="AH30" s="0" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="AI30" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ30" s="0" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>4</v>
@@ -6026,28 +5761,28 @@
         <v>6</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>46</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="S31" s="0" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="T31" s="0" t="n">
         <v>40</v>
@@ -6056,22 +5791,22 @@
         <v>40</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="Y31" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z31" s="0" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="AA31" s="0" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="AB31" s="0" t="n">
         <v>73</v>
@@ -6086,48 +5821,45 @@
         <v>9</v>
       </c>
       <c r="AF31" s="0" t="s">
-        <v>471</v>
+        <v>399</v>
       </c>
       <c r="AG31" s="0" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="AH31" s="0" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="AI31" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="AJ31" s="0" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>4</v>
@@ -6136,28 +5868,28 @@
         <v>7</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="T32" s="0" t="n">
         <v>24</v>
@@ -6166,22 +5898,22 @@
         <v>24</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="Y32" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z32" s="0" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="AA32" s="0" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="AB32" s="0" t="n">
         <v>68</v>
@@ -6196,48 +5928,45 @@
         <v>7.5</v>
       </c>
       <c r="AF32" s="0" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="AG32" s="0" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="AH32" s="0" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="AI32" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="AJ32" s="0" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>4</v>
@@ -6246,28 +5975,28 @@
         <v>8</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="T33" s="0" t="n">
         <v>28</v>
@@ -6276,22 +6005,22 @@
         <v>28</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="W33" s="0" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="X33" s="0" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="Y33" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z33" s="0" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="AA33" s="0" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="AB33" s="0" t="n">
         <v>71</v>
@@ -6306,48 +6035,45 @@
         <v>8</v>
       </c>
       <c r="AF33" s="0" t="s">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="AG33" s="0" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="AH33" s="0" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="AI33" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="AJ33" s="0" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>5</v>
@@ -6356,28 +6082,28 @@
         <v>1</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>45</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="T34" s="0" t="n">
         <v>29</v>
@@ -6386,7 +6112,7 @@
         <v>29</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="W34" s="0" t="s">
         <v>53</v>
@@ -6395,13 +6121,13 @@
         <v>54</v>
       </c>
       <c r="Y34" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z34" s="0" t="s">
         <v>54</v>
       </c>
       <c r="AA34" s="0" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="AB34" s="0" t="n">
         <v>74</v>
@@ -6416,48 +6142,45 @@
         <v>9</v>
       </c>
       <c r="AF34" s="0" t="s">
-        <v>514</v>
+        <v>57</v>
       </c>
       <c r="AG34" s="0" t="s">
-        <v>58</v>
+        <v>483</v>
       </c>
       <c r="AH34" s="0" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="AI34" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="AJ34" s="0" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>5</v>
@@ -6466,28 +6189,28 @@
         <v>2</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="S35" s="0" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="T35" s="0" t="n">
         <v>35</v>
@@ -6496,22 +6219,22 @@
         <v>35</v>
       </c>
       <c r="V35" s="0" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="W35" s="0" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="X35" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="Y35" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z35" s="0" t="s">
         <v>54</v>
       </c>
       <c r="AA35" s="0" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="AB35" s="0" t="n">
         <v>73</v>
@@ -6526,48 +6249,45 @@
         <v>9</v>
       </c>
       <c r="AF35" s="0" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="AG35" s="0" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="AH35" s="0" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="AI35" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="AJ35" s="0" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>5</v>
@@ -6576,28 +6296,28 @@
         <v>3</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>46</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="T36" s="0" t="n">
         <v>26</v>
@@ -6606,22 +6326,22 @@
         <v>26</v>
       </c>
       <c r="V36" s="0" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="X36" s="0" t="s">
         <v>54</v>
       </c>
       <c r="Y36" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z36" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AA36" s="0" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="AB36" s="0" t="n">
         <v>73</v>
@@ -6636,48 +6356,45 @@
         <v>9.25</v>
       </c>
       <c r="AF36" s="0" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="AG36" s="0" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="AH36" s="0" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="AI36" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="AJ36" s="0" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>5</v>
@@ -6686,28 +6403,28 @@
         <v>4</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N37" s="0" t="s">
         <v>46</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="S37" s="0" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="T37" s="0" t="n">
         <v>32</v>
@@ -6716,22 +6433,22 @@
         <v>32</v>
       </c>
       <c r="V37" s="0" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
       <c r="W37" s="0" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="X37" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="Y37" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z37" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AA37" s="0" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="AB37" s="0" t="n">
         <v>72</v>
@@ -6746,48 +6463,45 @@
         <v>10</v>
       </c>
       <c r="AF37" s="0" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="AG37" s="0" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="AH37" s="0" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="AI37" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="AJ37" s="0" t="s">
-        <v>558</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>5</v>
@@ -6796,28 +6510,28 @@
         <v>5</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="T38" s="0" t="n">
         <v>24</v>
@@ -6826,22 +6540,22 @@
         <v>24</v>
       </c>
       <c r="V38" s="0" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
       <c r="W38" s="0" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="X38" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="Y38" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z38" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AA38" s="0" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="AB38" s="0" t="n">
         <v>70</v>
@@ -6856,48 +6570,45 @@
         <v>7.5</v>
       </c>
       <c r="AF38" s="0" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="AG38" s="0" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="AH38" s="0" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="AI38" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="AJ38" s="0" t="s">
-        <v>570</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>572</v>
+        <v>534</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>5</v>
@@ -6906,28 +6617,28 @@
         <v>6</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>573</v>
+        <v>535</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>576</v>
+        <v>538</v>
       </c>
       <c r="T39" s="0" t="n">
         <v>30</v>
@@ -6936,22 +6647,22 @@
         <v>30</v>
       </c>
       <c r="V39" s="0" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
       <c r="W39" s="0" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="X39" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="Y39" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z39" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AA39" s="0" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="AB39" s="0" t="n">
         <v>70</v>
@@ -6966,48 +6677,45 @@
         <v>7.5</v>
       </c>
       <c r="AF39" s="0" t="s">
-        <v>578</v>
+        <v>520</v>
       </c>
       <c r="AG39" s="0" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="AH39" s="0" t="s">
-        <v>579</v>
+        <v>541</v>
       </c>
       <c r="AI39" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="AJ39" s="0" t="s">
-        <v>581</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>583</v>
+        <v>544</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>5</v>
@@ -7016,28 +6724,28 @@
         <v>7</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>585</v>
+        <v>546</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R40" s="0" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>22</v>
@@ -7046,22 +6754,22 @@
         <v>22</v>
       </c>
       <c r="V40" s="0" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
       <c r="W40" s="0" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="X40" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="Y40" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z40" s="0" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="AA40" s="0" t="s">
-        <v>587</v>
+        <v>548</v>
       </c>
       <c r="AB40" s="0" t="n">
         <v>77</v>
@@ -7076,48 +6784,45 @@
         <v>9</v>
       </c>
       <c r="AF40" s="0" t="s">
-        <v>588</v>
+        <v>520</v>
       </c>
       <c r="AG40" s="0" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="AH40" s="0" t="s">
-        <v>589</v>
+        <v>550</v>
       </c>
       <c r="AI40" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="AJ40" s="0" t="s">
-        <v>591</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>5</v>
@@ -7126,28 +6831,28 @@
         <v>8</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>597</v>
+        <v>557</v>
       </c>
       <c r="T41" s="0" t="n">
         <v>30</v>
@@ -7156,22 +6861,22 @@
         <v>30</v>
       </c>
       <c r="V41" s="0" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
       <c r="W41" s="0" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="X41" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="Y41" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z41" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AA41" s="0" t="s">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="AB41" s="0" t="n">
         <v>74</v>
@@ -7186,48 +6891,45 @@
         <v>9.5</v>
       </c>
       <c r="AF41" s="0" t="s">
-        <v>599</v>
+        <v>520</v>
       </c>
       <c r="AG41" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH41" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="AI41" s="0" t="s">
         <v>555</v>
-      </c>
-      <c r="AH41" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="AI41" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="AJ41" s="0" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>603</v>
+        <v>561</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>6</v>
@@ -7236,7 +6938,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="M42" s="0" t="s">
         <v>45</v>
@@ -7245,19 +6947,19 @@
         <v>46</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>612</v>
+        <v>570</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="R42" s="0" t="s">
-        <v>614</v>
+        <v>572</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="T42" s="0" t="n">
         <v>32</v>
@@ -7266,22 +6968,22 @@
         <v>32</v>
       </c>
       <c r="V42" s="0" t="s">
-        <v>616</v>
+        <v>574</v>
       </c>
       <c r="W42" s="0" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="X42" s="0" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="Y42" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z42" s="0" t="s">
         <v>54</v>
       </c>
       <c r="AA42" s="0" t="s">
-        <v>617</v>
+        <v>575</v>
       </c>
       <c r="AB42" s="0" t="n">
         <v>70</v>
@@ -7296,48 +6998,45 @@
         <v>8</v>
       </c>
       <c r="AF42" s="0" t="s">
-        <v>618</v>
+        <v>385</v>
       </c>
       <c r="AG42" s="0" t="s">
-        <v>409</v>
+        <v>576</v>
       </c>
       <c r="AH42" s="0" t="s">
-        <v>619</v>
+        <v>577</v>
       </c>
       <c r="AI42" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="AJ42" s="0" t="s">
-        <v>621</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>622</v>
+        <v>579</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>623</v>
+        <v>580</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>6</v>
@@ -7346,28 +7045,28 @@
         <v>2</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N43" s="0" t="s">
         <v>46</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>624</v>
+        <v>581</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>625</v>
+        <v>582</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>626</v>
+        <v>583</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>627</v>
+        <v>584</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>628</v>
+        <v>585</v>
       </c>
       <c r="T43" s="0" t="n">
         <v>23</v>
@@ -7376,22 +7075,22 @@
         <v>23</v>
       </c>
       <c r="V43" s="0" t="s">
-        <v>629</v>
+        <v>586</v>
       </c>
       <c r="W43" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="X43" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y43" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y43" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="Z43" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AA43" s="0" t="s">
-        <v>631</v>
+        <v>588</v>
       </c>
       <c r="AB43" s="0" t="n">
         <v>74</v>
@@ -7406,48 +7105,45 @@
         <v>7.5</v>
       </c>
       <c r="AF43" s="0" t="s">
-        <v>632</v>
+        <v>589</v>
       </c>
       <c r="AG43" s="0" t="s">
-        <v>633</v>
+        <v>590</v>
       </c>
       <c r="AH43" s="0" t="s">
-        <v>634</v>
+        <v>591</v>
       </c>
       <c r="AI43" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="AJ43" s="0" t="s">
-        <v>636</v>
+        <v>592</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>637</v>
+        <v>593</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>638</v>
+        <v>594</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>6</v>
@@ -7456,28 +7152,28 @@
         <v>3</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>639</v>
+        <v>595</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>640</v>
+        <v>596</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>641</v>
+        <v>597</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>642</v>
+        <v>598</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>643</v>
+        <v>599</v>
       </c>
       <c r="T44" s="0" t="n">
         <v>25</v>
@@ -7486,22 +7182,22 @@
         <v>25</v>
       </c>
       <c r="V44" s="0" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="W44" s="0" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="X44" s="0" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="Y44" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z44" s="0" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="AA44" s="0" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
       <c r="AB44" s="0" t="n">
         <v>72</v>
@@ -7516,48 +7212,45 @@
         <v>9</v>
       </c>
       <c r="AF44" s="0" t="s">
-        <v>646</v>
+        <v>307</v>
       </c>
       <c r="AG44" s="0" t="s">
-        <v>325</v>
+        <v>602</v>
       </c>
       <c r="AH44" s="0" t="s">
-        <v>647</v>
+        <v>603</v>
       </c>
       <c r="AI44" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="AJ44" s="0" t="s">
-        <v>649</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>6</v>
@@ -7566,28 +7259,28 @@
         <v>4</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>653</v>
+        <v>608</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>654</v>
+        <v>609</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="T45" s="0" t="n">
         <v>23</v>
@@ -7596,22 +7289,22 @@
         <v>28</v>
       </c>
       <c r="V45" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W45" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="X45" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y45" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y45" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="Z45" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AA45" s="0" t="s">
-        <v>656</v>
+        <v>611</v>
       </c>
       <c r="AB45" s="0" t="n">
         <v>72</v>
@@ -7626,48 +7319,45 @@
         <v>8</v>
       </c>
       <c r="AF45" s="0" t="s">
-        <v>657</v>
+        <v>119</v>
       </c>
       <c r="AG45" s="0" t="s">
-        <v>124</v>
+        <v>612</v>
       </c>
       <c r="AH45" s="0" t="s">
-        <v>658</v>
+        <v>613</v>
       </c>
       <c r="AI45" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="AJ45" s="0" t="s">
-        <v>660</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>661</v>
+        <v>615</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>662</v>
+        <v>616</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>6</v>
@@ -7676,28 +7366,28 @@
         <v>5</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>663</v>
+        <v>617</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>664</v>
+        <v>618</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>665</v>
+        <v>619</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>666</v>
+        <v>620</v>
       </c>
       <c r="R46" s="0" t="s">
-        <v>667</v>
+        <v>621</v>
       </c>
       <c r="S46" s="0" t="s">
-        <v>668</v>
+        <v>622</v>
       </c>
       <c r="T46" s="0" t="n">
         <v>22</v>
@@ -7706,22 +7396,22 @@
         <v>27</v>
       </c>
       <c r="V46" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W46" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="X46" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y46" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y46" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="Z46" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AA46" s="0" t="s">
-        <v>669</v>
+        <v>623</v>
       </c>
       <c r="AB46" s="0" t="n">
         <v>74</v>
@@ -7736,48 +7426,45 @@
         <v>7.5</v>
       </c>
       <c r="AF46" s="0" t="s">
-        <v>670</v>
+        <v>119</v>
       </c>
       <c r="AG46" s="0" t="s">
-        <v>124</v>
+        <v>612</v>
       </c>
       <c r="AH46" s="0" t="s">
-        <v>658</v>
+        <v>624</v>
       </c>
       <c r="AI46" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="AJ46" s="0" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>6</v>
@@ -7786,28 +7473,28 @@
         <v>6</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>677</v>
+        <v>630</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="T47" s="0" t="n">
         <v>21</v>
@@ -7816,22 +7503,22 @@
         <v>26</v>
       </c>
       <c r="V47" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W47" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="X47" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y47" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y47" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="Z47" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AA47" s="0" t="s">
-        <v>679</v>
+        <v>632</v>
       </c>
       <c r="AB47" s="0" t="n">
         <v>72</v>
@@ -7846,48 +7533,45 @@
         <v>8</v>
       </c>
       <c r="AF47" s="0" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="AG47" s="0" t="s">
-        <v>681</v>
+        <v>612</v>
       </c>
       <c r="AH47" s="0" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="AI47" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="AJ47" s="0" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>683</v>
+        <v>635</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>6</v>
@@ -7896,28 +7580,28 @@
         <v>7</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>685</v>
+        <v>637</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>686</v>
+        <v>638</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>687</v>
+        <v>639</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>688</v>
+        <v>640</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>689</v>
+        <v>641</v>
       </c>
       <c r="T48" s="0" t="n">
         <v>23</v>
@@ -7926,22 +7610,22 @@
         <v>28</v>
       </c>
       <c r="V48" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W48" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="X48" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y48" s="0" t="s">
         <v>55</v>
       </c>
       <c r="Z48" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AA48" s="0" t="s">
-        <v>690</v>
+        <v>642</v>
       </c>
       <c r="AB48" s="0" t="n">
         <v>67</v>
@@ -7956,48 +7640,45 @@
         <v>9</v>
       </c>
       <c r="AF48" s="0" t="s">
-        <v>691</v>
+        <v>633</v>
       </c>
       <c r="AG48" s="0" t="s">
-        <v>681</v>
+        <v>612</v>
       </c>
       <c r="AH48" s="0" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="AI48" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="AJ48" s="0" t="s">
-        <v>693</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>694</v>
+        <v>645</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>695</v>
+        <v>646</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>6</v>
@@ -8006,28 +7687,28 @@
         <v>8</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>611</v>
+        <v>569</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>696</v>
+        <v>647</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>697</v>
+        <v>648</v>
       </c>
       <c r="Q49" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="R49" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="S49" s="0" t="s">
         <v>641</v>
-      </c>
-      <c r="R49" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="S49" s="0" t="s">
-        <v>689</v>
       </c>
       <c r="T49" s="0" t="n">
         <v>21</v>
@@ -8036,22 +7717,22 @@
         <v>24</v>
       </c>
       <c r="V49" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W49" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="X49" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y49" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y49" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="Z49" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AA49" s="0" t="s">
-        <v>698</v>
+        <v>649</v>
       </c>
       <c r="AB49" s="0" t="n">
         <v>60</v>
@@ -8066,48 +7747,45 @@
         <v>7</v>
       </c>
       <c r="AF49" s="0" t="s">
-        <v>699</v>
+        <v>633</v>
       </c>
       <c r="AG49" s="0" t="s">
-        <v>681</v>
+        <v>612</v>
       </c>
       <c r="AH49" s="0" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="AI49" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="AJ49" s="0" t="s">
-        <v>701</v>
+        <v>651</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>702</v>
+        <v>652</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>703</v>
+        <v>653</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>704</v>
+        <v>654</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>705</v>
+        <v>655</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>706</v>
+        <v>656</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>707</v>
+        <v>657</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>7</v>
@@ -8116,28 +7794,28 @@
         <v>1</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>710</v>
+        <v>660</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>711</v>
+        <v>661</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>712</v>
+        <v>662</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="S50" s="0" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="T50" s="0" t="n">
         <v>35</v>
@@ -8146,7 +7824,7 @@
         <v>35</v>
       </c>
       <c r="V50" s="0" t="s">
-        <v>713</v>
+        <v>663</v>
       </c>
       <c r="W50" s="0" t="s">
         <v>53</v>
@@ -8155,13 +7833,13 @@
         <v>54</v>
       </c>
       <c r="Y50" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z50" s="0" t="s">
         <v>54</v>
       </c>
       <c r="AA50" s="0" t="s">
-        <v>714</v>
+        <v>664</v>
       </c>
       <c r="AB50" s="0" t="n">
         <v>70</v>
@@ -8176,48 +7854,45 @@
         <v>8.5</v>
       </c>
       <c r="AF50" s="0" t="s">
-        <v>715</v>
+        <v>57</v>
       </c>
       <c r="AG50" s="0" t="s">
-        <v>58</v>
+        <v>665</v>
       </c>
       <c r="AH50" s="0" t="s">
-        <v>716</v>
+        <v>666</v>
       </c>
       <c r="AI50" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="AJ50" s="0" t="s">
-        <v>718</v>
+        <v>667</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>719</v>
+        <v>668</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>720</v>
+        <v>669</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>704</v>
+        <v>654</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>705</v>
+        <v>655</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>706</v>
+        <v>656</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>707</v>
+        <v>657</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>7</v>
@@ -8226,28 +7901,28 @@
         <v>2</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>721</v>
+        <v>670</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>722</v>
+        <v>671</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>723</v>
+        <v>672</v>
       </c>
       <c r="S51" s="0" t="s">
-        <v>724</v>
+        <v>673</v>
       </c>
       <c r="T51" s="0" t="n">
         <v>24</v>
@@ -8256,22 +7931,22 @@
         <v>32</v>
       </c>
       <c r="V51" s="0" t="s">
-        <v>725</v>
+        <v>674</v>
       </c>
       <c r="W51" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="X51" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y51" s="0" t="s">
         <v>55</v>
       </c>
       <c r="Z51" s="0" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="AA51" s="0" t="s">
-        <v>726</v>
+        <v>675</v>
       </c>
       <c r="AB51" s="0" t="n">
         <v>65</v>
@@ -8286,48 +7961,45 @@
         <v>8</v>
       </c>
       <c r="AF51" s="0" t="s">
-        <v>727</v>
+        <v>676</v>
       </c>
       <c r="AG51" s="0" t="s">
-        <v>728</v>
+        <v>677</v>
       </c>
       <c r="AH51" s="0" t="s">
-        <v>729</v>
+        <v>678</v>
       </c>
       <c r="AI51" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="AJ51" s="0" t="s">
-        <v>731</v>
+        <v>679</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>732</v>
+        <v>680</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>733</v>
+        <v>681</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>704</v>
+        <v>654</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>705</v>
+        <v>655</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>706</v>
+        <v>656</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>707</v>
+        <v>657</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>7</v>
@@ -8336,28 +8008,28 @@
         <v>3</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>734</v>
+        <v>682</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>735</v>
+        <v>683</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>736</v>
+        <v>684</v>
       </c>
       <c r="S52" s="0" t="s">
-        <v>737</v>
+        <v>685</v>
       </c>
       <c r="T52" s="0" t="n">
         <v>38</v>
@@ -8366,22 +8038,22 @@
         <v>38</v>
       </c>
       <c r="V52" s="0" t="s">
-        <v>738</v>
+        <v>686</v>
       </c>
       <c r="W52" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="X52" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y52" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y52" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="Z52" s="0" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="AA52" s="0" t="s">
-        <v>739</v>
+        <v>687</v>
       </c>
       <c r="AB52" s="0" t="n">
         <v>73</v>
@@ -8396,48 +8068,45 @@
         <v>8.25</v>
       </c>
       <c r="AF52" s="0" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
       <c r="AG52" s="0" t="s">
-        <v>741</v>
+        <v>689</v>
       </c>
       <c r="AH52" s="0" t="s">
-        <v>742</v>
+        <v>690</v>
       </c>
       <c r="AI52" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="AJ52" s="0" t="s">
-        <v>744</v>
+        <v>691</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>745</v>
+        <v>692</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>746</v>
+        <v>693</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>704</v>
+        <v>654</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>705</v>
+        <v>655</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>706</v>
+        <v>656</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>707</v>
+        <v>657</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>7</v>
@@ -8446,28 +8115,28 @@
         <v>4</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N53" s="0" t="s">
         <v>46</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>747</v>
+        <v>694</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>748</v>
+        <v>695</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>749</v>
+        <v>696</v>
       </c>
       <c r="S53" s="0" t="s">
-        <v>750</v>
+        <v>697</v>
       </c>
       <c r="T53" s="0" t="n">
         <v>40</v>
@@ -8476,22 +8145,22 @@
         <v>40</v>
       </c>
       <c r="V53" s="0" t="s">
-        <v>751</v>
+        <v>698</v>
       </c>
       <c r="W53" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="X53" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y53" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y53" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="Z53" s="0" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="AA53" s="0" t="s">
-        <v>752</v>
+        <v>699</v>
       </c>
       <c r="AB53" s="0" t="n">
         <v>71</v>
@@ -8506,48 +8175,45 @@
         <v>8.5</v>
       </c>
       <c r="AF53" s="0" t="s">
-        <v>753</v>
+        <v>688</v>
       </c>
       <c r="AG53" s="0" t="s">
-        <v>741</v>
+        <v>700</v>
       </c>
       <c r="AH53" s="0" t="s">
-        <v>754</v>
+        <v>701</v>
       </c>
       <c r="AI53" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="AJ53" s="0" t="s">
-        <v>756</v>
+        <v>702</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>757</v>
+        <v>703</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>758</v>
+        <v>704</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>704</v>
+        <v>654</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>705</v>
+        <v>655</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>706</v>
+        <v>656</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>707</v>
+        <v>657</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>7</v>
@@ -8556,28 +8222,28 @@
         <v>5</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>759</v>
+        <v>705</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>760</v>
+        <v>706</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>761</v>
+        <v>707</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>762</v>
+        <v>708</v>
       </c>
       <c r="R54" s="0" t="s">
-        <v>763</v>
+        <v>709</v>
       </c>
       <c r="S54" s="0" t="s">
-        <v>764</v>
+        <v>710</v>
       </c>
       <c r="T54" s="0" t="n">
         <v>21</v>
@@ -8586,22 +8252,22 @@
         <v>24</v>
       </c>
       <c r="V54" s="0" t="s">
-        <v>765</v>
+        <v>711</v>
       </c>
       <c r="W54" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="X54" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y54" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y54" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="Z54" s="0" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="AA54" s="0" t="s">
-        <v>766</v>
+        <v>712</v>
       </c>
       <c r="AB54" s="0" t="n">
         <v>72</v>
@@ -8616,48 +8282,45 @@
         <v>8</v>
       </c>
       <c r="AF54" s="0" t="s">
-        <v>767</v>
+        <v>676</v>
       </c>
       <c r="AG54" s="0" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="AH54" s="0" t="s">
-        <v>768</v>
+        <v>714</v>
       </c>
       <c r="AI54" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="AJ54" s="0" t="s">
-        <v>770</v>
+        <v>715</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>771</v>
+        <v>716</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>772</v>
+        <v>717</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>704</v>
+        <v>654</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>705</v>
+        <v>655</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>706</v>
+        <v>656</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>707</v>
+        <v>657</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>7</v>
@@ -8666,28 +8329,28 @@
         <v>6</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>773</v>
+        <v>718</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>774</v>
+        <v>719</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>775</v>
+        <v>720</v>
       </c>
       <c r="R55" s="0" t="s">
-        <v>776</v>
+        <v>721</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>777</v>
+        <v>722</v>
       </c>
       <c r="T55" s="0" t="n">
         <v>23</v>
@@ -8696,22 +8359,22 @@
         <v>29</v>
       </c>
       <c r="V55" s="0" t="s">
-        <v>778</v>
+        <v>723</v>
       </c>
       <c r="W55" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="X55" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y55" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y55" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="Z55" s="0" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="AA55" s="0" t="s">
-        <v>779</v>
+        <v>724</v>
       </c>
       <c r="AB55" s="0" t="n">
         <v>72</v>
@@ -8726,48 +8389,45 @@
         <v>7</v>
       </c>
       <c r="AF55" s="0" t="s">
-        <v>780</v>
+        <v>676</v>
       </c>
       <c r="AG55" s="0" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="AH55" s="0" t="s">
-        <v>781</v>
+        <v>726</v>
       </c>
       <c r="AI55" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="AJ55" s="0" t="s">
-        <v>783</v>
+        <v>727</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>784</v>
+        <v>728</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>785</v>
+        <v>729</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>704</v>
+        <v>654</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>705</v>
+        <v>655</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>706</v>
+        <v>656</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>707</v>
+        <v>657</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>7</v>
@@ -8776,28 +8436,28 @@
         <v>7</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="N56" s="0" t="s">
         <v>46</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>786</v>
+        <v>730</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>787</v>
+        <v>731</v>
       </c>
       <c r="Q56" s="0" t="s">
-        <v>788</v>
+        <v>732</v>
       </c>
       <c r="R56" s="0" t="s">
-        <v>789</v>
+        <v>733</v>
       </c>
       <c r="S56" s="0" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="T56" s="0" t="n">
         <v>22</v>
@@ -8806,22 +8466,22 @@
         <v>27</v>
       </c>
       <c r="V56" s="0" t="s">
-        <v>790</v>
+        <v>734</v>
       </c>
       <c r="W56" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="X56" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y56" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Y56" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="Z56" s="0" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="AA56" s="0" t="s">
-        <v>791</v>
+        <v>735</v>
       </c>
       <c r="AB56" s="0" t="n">
         <v>72</v>
@@ -8836,48 +8496,45 @@
         <v>7.5</v>
       </c>
       <c r="AF56" s="0" t="s">
-        <v>792</v>
+        <v>676</v>
       </c>
       <c r="AG56" s="0" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="AH56" s="0" t="s">
-        <v>793</v>
+        <v>737</v>
       </c>
       <c r="AI56" s="0" t="s">
-        <v>794</v>
-      </c>
-      <c r="AJ56" s="0" t="s">
-        <v>795</v>
+        <v>738</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>796</v>
+        <v>739</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>797</v>
+        <v>740</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>704</v>
+        <v>654</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>705</v>
+        <v>655</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>706</v>
+        <v>656</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>707</v>
+        <v>657</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>7</v>
@@ -8886,28 +8543,28 @@
         <v>8</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>798</v>
+        <v>741</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>799</v>
+        <v>742</v>
       </c>
       <c r="Q57" s="0" t="s">
-        <v>800</v>
+        <v>743</v>
       </c>
       <c r="R57" s="0" t="s">
-        <v>801</v>
+        <v>744</v>
       </c>
       <c r="S57" s="0" t="s">
-        <v>802</v>
+        <v>745</v>
       </c>
       <c r="T57" s="0" t="n">
         <v>24</v>
@@ -8916,22 +8573,22 @@
         <v>35</v>
       </c>
       <c r="V57" s="0" t="s">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="W57" s="0" t="s">
-        <v>630</v>
+        <v>587</v>
       </c>
       <c r="X57" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y57" s="0" t="s">
         <v>55</v>
       </c>
       <c r="Z57" s="0" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="AA57" s="0" t="s">
-        <v>804</v>
+        <v>747</v>
       </c>
       <c r="AB57" s="0" t="n">
         <v>70</v>
@@ -8946,19 +8603,16 @@
         <v>8</v>
       </c>
       <c r="AF57" s="0" t="s">
-        <v>805</v>
+        <v>676</v>
       </c>
       <c r="AG57" s="0" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="AH57" s="0" t="s">
-        <v>806</v>
+        <v>749</v>
       </c>
       <c r="AI57" s="0" t="s">
-        <v>807</v>
-      </c>
-      <c r="AJ57" s="0" t="s">
-        <v>808</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/asc_network.xlsx
+++ b/asc_network.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Residence</t>
   </si>
   <si>
-    <t xml:space="preserve">Asc_Prof_SubResidence</t>
+    <t xml:space="preserve">SubResidence</t>
   </si>
   <si>
     <t xml:space="preserve">Height</t>
@@ -565,7 +565,7 @@
     <t xml:space="preserve">Pharmacy Market Retailer</t>
   </si>
   <si>
-    <t xml:space="preserve">Ledger Keeper</t>
+    <t xml:space="preserve">Recall Dispenser</t>
   </si>
   <si>
     <t xml:space="preserve">Clinical Anchor</t>
@@ -601,7 +601,7 @@
     <t xml:space="preserve">Chef</t>
   </si>
   <si>
-    <t xml:space="preserve">Salt Whisperer</t>
+    <t xml:space="preserve">Back-of-House Ghost</t>
   </si>
   <si>
     <t xml:space="preserve">Unseen Host</t>
@@ -643,7 +643,7 @@
     <t xml:space="preserve">Cafe Barista</t>
   </si>
   <si>
-    <t xml:space="preserve">Listening Post</t>
+    <t xml:space="preserve">Sightline Shepherd</t>
   </si>
   <si>
     <t xml:space="preserve">Umbrella Guardian</t>
@@ -679,7 +679,7 @@
     <t xml:space="preserve">Junior Financial Auditor</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover Weaver</t>
+    <t xml:space="preserve">Alibi Router</t>
   </si>
   <si>
     <t xml:space="preserve">Office-Lore Router</t>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">Senior Claims Analyst</t>
   </si>
   <si>
-    <t xml:space="preserve">Bogey Man</t>
+    <t xml:space="preserve">Puttline Witness</t>
   </si>
   <si>
     <t xml:space="preserve">Procedural Bloodhound</t>
@@ -748,7 +748,7 @@
     <t xml:space="preserve">IT Systems Admin</t>
   </si>
   <si>
-    <t xml:space="preserve">Mirror Mask</t>
+    <t xml:space="preserve">Backwindow Charmer</t>
   </si>
   <si>
     <t xml:space="preserve">Saturated Charmer</t>
@@ -781,7 +781,7 @@
     <t xml:space="preserve">Risk Assessment Spec.</t>
   </si>
   <si>
-    <t xml:space="preserve">Confusion Curtain</t>
+    <t xml:space="preserve">Exit Vector</t>
   </si>
   <si>
     <t xml:space="preserve">Offshore Liaison</t>
@@ -808,7 +808,7 @@
     <t xml:space="preserve">Project Coordinator </t>
   </si>
   <si>
-    <t xml:space="preserve">Blues Man</t>
+    <t xml:space="preserve">Night Sensor</t>
   </si>
   <si>
     <t xml:space="preserve">Corridor Cartographer</t>
@@ -1381,7 +1381,7 @@
     <t xml:space="preserve">House_NWDistrict_Parker_S</t>
   </si>
   <si>
-    <t xml:space="preserve">Cyber Security</t>
+    <t xml:space="preserve">Cyber Ops</t>
   </si>
   <si>
     <t xml:space="preserve">Signal Controller</t>
@@ -2476,8 +2476,8 @@
   </sheetPr>
   <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF13" activeCellId="0" sqref="AF13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH10" activeCellId="0" sqref="AH10:AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/asc_network.xlsx
+++ b/asc_network.xlsx
@@ -1474,7 +1474,7 @@
     <t xml:space="preserve">Tech Gadget Retailer</t>
   </si>
   <si>
-    <t xml:space="preserve">Backchannel Broker</t>
+    <t xml:space="preserve">Offsite Procurement</t>
   </si>
   <si>
     <t xml:space="preserve">Late-Fee Closer</t>
@@ -1510,7 +1510,7 @@
     <t xml:space="preserve">Vending Ops Lead </t>
   </si>
   <si>
-    <t xml:space="preserve">Route Custodian</t>
+    <t xml:space="preserve">Facilities Svc Coord </t>
   </si>
   <si>
     <t xml:space="preserve">Restock Marshal</t>
@@ -1549,7 +1549,7 @@
     <t xml:space="preserve">Laserbeat Arcade Host</t>
   </si>
   <si>
-    <t xml:space="preserve">Neon Floorboss</t>
+    <t xml:space="preserve">Field Test Ops </t>
   </si>
   <si>
     <t xml:space="preserve">House Rules</t>
@@ -1588,7 +1588,7 @@
     <t xml:space="preserve">QA Analyst</t>
   </si>
   <si>
-    <t xml:space="preserve">Format Warden</t>
+    <t xml:space="preserve">Prototype Test Lead</t>
   </si>
   <si>
     <t xml:space="preserve">Codey S</t>
@@ -1618,7 +1618,7 @@
     <t xml:space="preserve">Delivery Manager</t>
   </si>
   <si>
-    <t xml:space="preserve">Dispatch Spark</t>
+    <t xml:space="preserve">Lab Ops Director </t>
   </si>
   <si>
     <t xml:space="preserve">Brick D</t>
@@ -1645,7 +1645,7 @@
     <t xml:space="preserve">Risk and Controls</t>
   </si>
   <si>
-    <t xml:space="preserve">Controls Ram</t>
+    <t xml:space="preserve">Sys Design Lead</t>
   </si>
   <si>
     <t xml:space="preserve">Audit Wedge</t>
@@ -1672,7 +1672,7 @@
     <t xml:space="preserve">Junior Developer</t>
   </si>
   <si>
-    <t xml:space="preserve">Shadow Lead</t>
+    <t xml:space="preserve">Prototype Dev Eng </t>
   </si>
   <si>
     <t xml:space="preserve">Hotfix Crown</t>
@@ -1702,7 +1702,7 @@
     <t xml:space="preserve">Network Security Engr</t>
   </si>
   <si>
-    <t xml:space="preserve">Perimeter Architect</t>
+    <t xml:space="preserve">Sec Clearance Arch</t>
   </si>
   <si>
     <t xml:space="preserve">Logan X</t>
@@ -2282,7 +2282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2302,6 +2302,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2346,9 +2351,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2476,8 +2485,8 @@
   </sheetPr>
   <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH10" activeCellId="0" sqref="AH10:AH18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH39" activeCellId="0" sqref="AH39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2515,7 +2524,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="5.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="23.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="18.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.93"/>
   </cols>
   <sheetData>
@@ -6254,7 +6263,7 @@
       <c r="AG35" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="AH35" s="0" t="s">
+      <c r="AH35" s="1" t="s">
         <v>496</v>
       </c>
       <c r="AI35" s="0" t="s">
@@ -6361,7 +6370,7 @@
       <c r="AG36" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="AH36" s="0" t="s">
+      <c r="AH36" s="1" t="s">
         <v>509</v>
       </c>
       <c r="AI36" s="0" t="s">
@@ -6575,7 +6584,7 @@
       <c r="AG38" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="AH38" s="0" t="s">
+      <c r="AH38" s="1" t="s">
         <v>532</v>
       </c>
       <c r="AI38" s="0" t="s">
@@ -6789,7 +6798,7 @@
       <c r="AG40" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="AH40" s="0" t="s">
+      <c r="AH40" s="1" t="s">
         <v>550</v>
       </c>
       <c r="AI40" s="0" t="s">
